--- a/Code/Results/Cases/Case_0_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_line/pl_mw.xlsx
@@ -415,22 +415,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06674687542091107</v>
+        <v>0.06674687542100344</v>
       </c>
       <c r="D2">
-        <v>0.1086016058944121</v>
+        <v>0.1086016058943429</v>
       </c>
       <c r="E2">
-        <v>3.287844038219134</v>
+        <v>3.287844038219163</v>
       </c>
       <c r="F2">
-        <v>2.535840369699443</v>
+        <v>2.535840369699415</v>
       </c>
       <c r="G2">
-        <v>2.087519145866324</v>
+        <v>2.08751914586631</v>
       </c>
       <c r="H2">
-        <v>1.830461771475086</v>
+        <v>1.830461771475072</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>2.399852935142931</v>
       </c>
       <c r="L2">
-        <v>39.25077545956015</v>
+        <v>39.25077545956003</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05692143451009457</v>
+        <v>0.05692143450999509</v>
       </c>
       <c r="D3">
-        <v>0.06430569232810157</v>
+        <v>0.06430569232819749</v>
       </c>
       <c r="E3">
         <v>2.644235343175424</v>
       </c>
       <c r="F3">
-        <v>1.829014260643177</v>
+        <v>1.829014260643149</v>
       </c>
       <c r="G3">
-        <v>1.473729740086483</v>
+        <v>1.473729740086455</v>
       </c>
       <c r="H3">
-        <v>1.272134271134604</v>
+        <v>1.272134271134583</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.920784444137098</v>
+        <v>1.92078444413707</v>
       </c>
       <c r="L3">
-        <v>32.12096500701705</v>
+        <v>32.12096500701688</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,22 +491,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05119725517052132</v>
+        <v>0.05119725517040763</v>
       </c>
       <c r="D4">
-        <v>0.04552451608848829</v>
+        <v>0.04552451608831154</v>
       </c>
       <c r="E4">
-        <v>2.311337632444335</v>
+        <v>2.311337632444321</v>
       </c>
       <c r="F4">
-        <v>1.498177706138122</v>
+        <v>1.498177706138094</v>
       </c>
       <c r="G4">
-        <v>1.190650362040628</v>
+        <v>1.1906503620406</v>
       </c>
       <c r="H4">
-        <v>1.017545867086639</v>
+        <v>1.017545867086618</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.674684189805944</v>
+        <v>1.674684189805888</v>
       </c>
       <c r="L4">
-        <v>28.3161567988858</v>
+        <v>28.31615679888569</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.04891558041288846</v>
+        <v>0.04891558041313715</v>
       </c>
       <c r="D5">
-        <v>0.039181437662962</v>
+        <v>0.03918143766307525</v>
       </c>
       <c r="E5">
         <v>2.185198990978122</v>
       </c>
       <c r="F5">
-        <v>1.379955540170712</v>
+        <v>1.379955540170741</v>
       </c>
       <c r="G5">
         <v>1.090332072305131</v>
       </c>
       <c r="H5">
-        <v>0.9279229431630682</v>
+        <v>0.9279229431630753</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.581741135737502</v>
+        <v>1.581741135737516</v>
       </c>
       <c r="L5">
-        <v>26.854613964544</v>
+        <v>26.85461396454423</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,10 +567,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04853925421553384</v>
+        <v>0.04853925421529226</v>
       </c>
       <c r="D6">
-        <v>0.03819234802589611</v>
+        <v>0.03819234802582416</v>
       </c>
       <c r="E6">
         <v>2.164715078693533</v>
@@ -579,10 +579,10 @@
         <v>1.361150181622932</v>
       </c>
       <c r="G6">
-        <v>1.074421068696843</v>
+        <v>1.074421068696836</v>
       </c>
       <c r="H6">
-        <v>0.9137420246082328</v>
+        <v>0.9137420246082186</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.566663957893297</v>
+        <v>1.566663957893326</v>
       </c>
       <c r="L6">
-        <v>26.6162607543389</v>
+        <v>26.61626075433878</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05116630265832356</v>
+        <v>0.05116630265819566</v>
       </c>
       <c r="D7">
-        <v>0.04543438211796413</v>
+        <v>0.04543438211797435</v>
       </c>
       <c r="E7">
         <v>2.309603380618015</v>
@@ -617,10 +617,10 @@
         <v>1.496524577159718</v>
       </c>
       <c r="G7">
-        <v>1.189244259438141</v>
+        <v>1.189244259438112</v>
       </c>
       <c r="H7">
-        <v>1.016287263435068</v>
+        <v>1.016287263435075</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>1.673405186999645</v>
       </c>
       <c r="L7">
-        <v>28.29613535756567</v>
+        <v>28.29613535756579</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06327304415749069</v>
+        <v>0.06327304415757595</v>
       </c>
       <c r="D8">
-        <v>0.09088271340841558</v>
+        <v>0.09088271340829657</v>
       </c>
       <c r="E8">
-        <v>3.04766231919146</v>
+        <v>3.047662319191446</v>
       </c>
       <c r="F8">
-        <v>2.26272077793719</v>
+        <v>2.262720777937261</v>
       </c>
       <c r="G8">
-        <v>1.849094461443698</v>
+        <v>1.849094461443755</v>
       </c>
       <c r="H8">
-        <v>1.612722368258389</v>
+        <v>1.612722368258446</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.220577762363646</v>
+        <v>2.220577762363618</v>
       </c>
       <c r="L8">
         <v>36.62612031983809</v>
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06327304415749069</v>
+        <v>0.06327304415757595</v>
       </c>
       <c r="D9">
-        <v>0.09088271340841558</v>
+        <v>0.09088271340829657</v>
       </c>
       <c r="E9">
-        <v>3.04766231919146</v>
+        <v>3.047662319191446</v>
       </c>
       <c r="F9">
-        <v>2.26272077793719</v>
+        <v>2.262720777937261</v>
       </c>
       <c r="G9">
-        <v>1.849094461443698</v>
+        <v>1.849094461443755</v>
       </c>
       <c r="H9">
-        <v>1.612722368258389</v>
+        <v>1.612722368258446</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.220577762363646</v>
+        <v>2.220577762363618</v>
       </c>
       <c r="L9">
         <v>36.62612031983809</v>
@@ -719,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06327304415749069</v>
+        <v>0.06327304415757595</v>
       </c>
       <c r="D10">
-        <v>0.09088271340841558</v>
+        <v>0.09088271340829657</v>
       </c>
       <c r="E10">
-        <v>3.04766231919146</v>
+        <v>3.047662319191446</v>
       </c>
       <c r="F10">
-        <v>2.26272077793719</v>
+        <v>2.262720777937261</v>
       </c>
       <c r="G10">
-        <v>1.849094461443698</v>
+        <v>1.849094461443755</v>
       </c>
       <c r="H10">
-        <v>1.612722368258389</v>
+        <v>1.612722368258446</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.220577762363646</v>
+        <v>2.220577762363618</v>
       </c>
       <c r="L10">
         <v>36.62612031983809</v>
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.06327304415749069</v>
+        <v>0.06327304415757595</v>
       </c>
       <c r="D11">
-        <v>0.09088271340841558</v>
+        <v>0.09088271340829657</v>
       </c>
       <c r="E11">
-        <v>3.04766231919146</v>
+        <v>3.047662319191446</v>
       </c>
       <c r="F11">
-        <v>2.26272077793719</v>
+        <v>2.262720777937261</v>
       </c>
       <c r="G11">
-        <v>1.849094461443698</v>
+        <v>1.849094461443755</v>
       </c>
       <c r="H11">
-        <v>1.612722368258389</v>
+        <v>1.612722368258446</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.220577762363646</v>
+        <v>2.220577762363618</v>
       </c>
       <c r="L11">
         <v>36.62612031983809</v>
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.06327304415749069</v>
+        <v>0.06327304415757595</v>
       </c>
       <c r="D12">
-        <v>0.09088271340841558</v>
+        <v>0.09088271340829657</v>
       </c>
       <c r="E12">
-        <v>3.04766231919146</v>
+        <v>3.047662319191446</v>
       </c>
       <c r="F12">
-        <v>2.26272077793719</v>
+        <v>2.262720777937261</v>
       </c>
       <c r="G12">
-        <v>1.849094461443698</v>
+        <v>1.849094461443755</v>
       </c>
       <c r="H12">
-        <v>1.612722368258389</v>
+        <v>1.612722368258446</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.220577762363646</v>
+        <v>2.220577762363618</v>
       </c>
       <c r="L12">
         <v>36.62612031983809</v>
@@ -833,22 +833,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.06327304415749069</v>
+        <v>0.06327304415757595</v>
       </c>
       <c r="D13">
-        <v>0.09088271340841558</v>
+        <v>0.09088271340829657</v>
       </c>
       <c r="E13">
-        <v>3.04766231919146</v>
+        <v>3.047662319191446</v>
       </c>
       <c r="F13">
-        <v>2.26272077793719</v>
+        <v>2.262720777937261</v>
       </c>
       <c r="G13">
-        <v>1.849094461443698</v>
+        <v>1.849094461443755</v>
       </c>
       <c r="H13">
-        <v>1.612722368258389</v>
+        <v>1.612722368258446</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.220577762363646</v>
+        <v>2.220577762363618</v>
       </c>
       <c r="L13">
         <v>36.62612031983809</v>
@@ -871,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.06327304415749069</v>
+        <v>0.06327304415757595</v>
       </c>
       <c r="D14">
-        <v>0.09088271340841558</v>
+        <v>0.09088271340829657</v>
       </c>
       <c r="E14">
-        <v>3.04766231919146</v>
+        <v>3.047662319191446</v>
       </c>
       <c r="F14">
-        <v>2.26272077793719</v>
+        <v>2.262720777937261</v>
       </c>
       <c r="G14">
-        <v>1.849094461443698</v>
+        <v>1.849094461443755</v>
       </c>
       <c r="H14">
-        <v>1.612722368258389</v>
+        <v>1.612722368258446</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.220577762363646</v>
+        <v>2.220577762363618</v>
       </c>
       <c r="L14">
         <v>36.62612031983809</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.06327304415749069</v>
+        <v>0.06327304415757595</v>
       </c>
       <c r="D15">
-        <v>0.09088271340841558</v>
+        <v>0.09088271340829657</v>
       </c>
       <c r="E15">
-        <v>3.04766231919146</v>
+        <v>3.047662319191446</v>
       </c>
       <c r="F15">
-        <v>2.26272077793719</v>
+        <v>2.262720777937261</v>
       </c>
       <c r="G15">
-        <v>1.849094461443698</v>
+        <v>1.849094461443755</v>
       </c>
       <c r="H15">
-        <v>1.612722368258389</v>
+        <v>1.612722368258446</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.220577762363646</v>
+        <v>2.220577762363618</v>
       </c>
       <c r="L15">
         <v>36.62612031983809</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06327304415749069</v>
+        <v>0.06327304415757595</v>
       </c>
       <c r="D16">
-        <v>0.09088271340841558</v>
+        <v>0.09088271340829657</v>
       </c>
       <c r="E16">
-        <v>3.04766231919146</v>
+        <v>3.047662319191446</v>
       </c>
       <c r="F16">
-        <v>2.26272077793719</v>
+        <v>2.262720777937261</v>
       </c>
       <c r="G16">
-        <v>1.849094461443698</v>
+        <v>1.849094461443755</v>
       </c>
       <c r="H16">
-        <v>1.612722368258389</v>
+        <v>1.612722368258446</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.220577762363646</v>
+        <v>2.220577762363618</v>
       </c>
       <c r="L16">
         <v>36.62612031983809</v>
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06327304415749069</v>
+        <v>0.06327304415757595</v>
       </c>
       <c r="D17">
-        <v>0.09088271340841558</v>
+        <v>0.09088271340829657</v>
       </c>
       <c r="E17">
-        <v>3.04766231919146</v>
+        <v>3.047662319191446</v>
       </c>
       <c r="F17">
-        <v>2.26272077793719</v>
+        <v>2.262720777937261</v>
       </c>
       <c r="G17">
-        <v>1.849094461443698</v>
+        <v>1.849094461443755</v>
       </c>
       <c r="H17">
-        <v>1.612722368258389</v>
+        <v>1.612722368258446</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.220577762363646</v>
+        <v>2.220577762363618</v>
       </c>
       <c r="L17">
         <v>36.62612031983809</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06327304415749069</v>
+        <v>0.06327304415757595</v>
       </c>
       <c r="D18">
-        <v>0.09088271340841558</v>
+        <v>0.09088271340829657</v>
       </c>
       <c r="E18">
-        <v>3.04766231919146</v>
+        <v>3.047662319191446</v>
       </c>
       <c r="F18">
-        <v>2.26272077793719</v>
+        <v>2.262720777937261</v>
       </c>
       <c r="G18">
-        <v>1.849094461443698</v>
+        <v>1.849094461443755</v>
       </c>
       <c r="H18">
-        <v>1.612722368258389</v>
+        <v>1.612722368258446</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.220577762363646</v>
+        <v>2.220577762363618</v>
       </c>
       <c r="L18">
         <v>36.62612031983809</v>
@@ -1061,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06327304415749069</v>
+        <v>0.06327304415757595</v>
       </c>
       <c r="D19">
-        <v>0.09088271340841558</v>
+        <v>0.09088271340829657</v>
       </c>
       <c r="E19">
-        <v>3.04766231919146</v>
+        <v>3.047662319191446</v>
       </c>
       <c r="F19">
-        <v>2.26272077793719</v>
+        <v>2.262720777937261</v>
       </c>
       <c r="G19">
-        <v>1.849094461443698</v>
+        <v>1.849094461443755</v>
       </c>
       <c r="H19">
-        <v>1.612722368258389</v>
+        <v>1.612722368258446</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.220577762363646</v>
+        <v>2.220577762363618</v>
       </c>
       <c r="L19">
         <v>36.62612031983809</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06327304415749069</v>
+        <v>0.06327304415757595</v>
       </c>
       <c r="D20">
-        <v>0.09088271340841558</v>
+        <v>0.09088271340829657</v>
       </c>
       <c r="E20">
-        <v>3.04766231919146</v>
+        <v>3.047662319191446</v>
       </c>
       <c r="F20">
-        <v>2.26272077793719</v>
+        <v>2.262720777937261</v>
       </c>
       <c r="G20">
-        <v>1.849094461443698</v>
+        <v>1.849094461443755</v>
       </c>
       <c r="H20">
-        <v>1.612722368258389</v>
+        <v>1.612722368258446</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.220577762363646</v>
+        <v>2.220577762363618</v>
       </c>
       <c r="L20">
         <v>36.62612031983809</v>
@@ -1137,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.06327304415749069</v>
+        <v>0.06327304415757595</v>
       </c>
       <c r="D21">
-        <v>0.09088271340841558</v>
+        <v>0.09088271340829657</v>
       </c>
       <c r="E21">
-        <v>3.04766231919146</v>
+        <v>3.047662319191446</v>
       </c>
       <c r="F21">
-        <v>2.26272077793719</v>
+        <v>2.262720777937261</v>
       </c>
       <c r="G21">
-        <v>1.849094461443698</v>
+        <v>1.849094461443755</v>
       </c>
       <c r="H21">
-        <v>1.612722368258389</v>
+        <v>1.612722368258446</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.220577762363646</v>
+        <v>2.220577762363618</v>
       </c>
       <c r="L21">
         <v>36.62612031983809</v>
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.06327304415749069</v>
+        <v>0.06327304415757595</v>
       </c>
       <c r="D22">
-        <v>0.09088271340841558</v>
+        <v>0.09088271340829657</v>
       </c>
       <c r="E22">
-        <v>3.04766231919146</v>
+        <v>3.047662319191446</v>
       </c>
       <c r="F22">
-        <v>2.26272077793719</v>
+        <v>2.262720777937261</v>
       </c>
       <c r="G22">
-        <v>1.849094461443698</v>
+        <v>1.849094461443755</v>
       </c>
       <c r="H22">
-        <v>1.612722368258389</v>
+        <v>1.612722368258446</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.220577762363646</v>
+        <v>2.220577762363618</v>
       </c>
       <c r="L22">
         <v>36.62612031983809</v>
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.06327304415749069</v>
+        <v>0.06327304415757595</v>
       </c>
       <c r="D23">
-        <v>0.09088271340841558</v>
+        <v>0.09088271340829657</v>
       </c>
       <c r="E23">
-        <v>3.04766231919146</v>
+        <v>3.047662319191446</v>
       </c>
       <c r="F23">
-        <v>2.26272077793719</v>
+        <v>2.262720777937261</v>
       </c>
       <c r="G23">
-        <v>1.849094461443698</v>
+        <v>1.849094461443755</v>
       </c>
       <c r="H23">
-        <v>1.612722368258389</v>
+        <v>1.612722368258446</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.220577762363646</v>
+        <v>2.220577762363618</v>
       </c>
       <c r="L23">
         <v>36.62612031983809</v>
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06327304415749069</v>
+        <v>0.06327304415757595</v>
       </c>
       <c r="D24">
-        <v>0.09088271340841558</v>
+        <v>0.09088271340829657</v>
       </c>
       <c r="E24">
-        <v>3.04766231919146</v>
+        <v>3.047662319191446</v>
       </c>
       <c r="F24">
-        <v>2.26272077793719</v>
+        <v>2.262720777937261</v>
       </c>
       <c r="G24">
-        <v>1.849094461443698</v>
+        <v>1.849094461443755</v>
       </c>
       <c r="H24">
-        <v>1.612722368258389</v>
+        <v>1.612722368258446</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.220577762363646</v>
+        <v>2.220577762363618</v>
       </c>
       <c r="L24">
         <v>36.62612031983809</v>
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.06327304415749069</v>
+        <v>0.06327304415757595</v>
       </c>
       <c r="D25">
-        <v>0.09088271340841558</v>
+        <v>0.09088271340829657</v>
       </c>
       <c r="E25">
-        <v>3.04766231919146</v>
+        <v>3.047662319191446</v>
       </c>
       <c r="F25">
-        <v>2.26272077793719</v>
+        <v>2.262720777937261</v>
       </c>
       <c r="G25">
-        <v>1.849094461443698</v>
+        <v>1.849094461443755</v>
       </c>
       <c r="H25">
-        <v>1.612722368258389</v>
+        <v>1.612722368258446</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.220577762363646</v>
+        <v>2.220577762363618</v>
       </c>
       <c r="L25">
         <v>36.62612031983809</v>

--- a/Code/Results/Cases/Case_0_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_line/pl_mw.xlsx
@@ -415,22 +415,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06674687542100344</v>
+        <v>0.06674687542091107</v>
       </c>
       <c r="D2">
-        <v>0.1086016058943429</v>
+        <v>0.1086016058944121</v>
       </c>
       <c r="E2">
-        <v>3.287844038219163</v>
+        <v>3.287844038219134</v>
       </c>
       <c r="F2">
-        <v>2.535840369699415</v>
+        <v>2.535840369699443</v>
       </c>
       <c r="G2">
-        <v>2.08751914586631</v>
+        <v>2.087519145866324</v>
       </c>
       <c r="H2">
-        <v>1.830461771475072</v>
+        <v>1.830461771475086</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>2.399852935142931</v>
       </c>
       <c r="L2">
-        <v>39.25077545956003</v>
+        <v>39.25077545956015</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05692143450999509</v>
+        <v>0.05692143451009457</v>
       </c>
       <c r="D3">
-        <v>0.06430569232819749</v>
+        <v>0.06430569232810157</v>
       </c>
       <c r="E3">
         <v>2.644235343175424</v>
       </c>
       <c r="F3">
-        <v>1.829014260643149</v>
+        <v>1.829014260643177</v>
       </c>
       <c r="G3">
-        <v>1.473729740086455</v>
+        <v>1.473729740086483</v>
       </c>
       <c r="H3">
-        <v>1.272134271134583</v>
+        <v>1.272134271134604</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.92078444413707</v>
+        <v>1.920784444137098</v>
       </c>
       <c r="L3">
-        <v>32.12096500701688</v>
+        <v>32.12096500701705</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,22 +491,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05119725517040763</v>
+        <v>0.05119725517052132</v>
       </c>
       <c r="D4">
-        <v>0.04552451608831154</v>
+        <v>0.04552451608848829</v>
       </c>
       <c r="E4">
-        <v>2.311337632444321</v>
+        <v>2.311337632444335</v>
       </c>
       <c r="F4">
-        <v>1.498177706138094</v>
+        <v>1.498177706138122</v>
       </c>
       <c r="G4">
-        <v>1.1906503620406</v>
+        <v>1.190650362040628</v>
       </c>
       <c r="H4">
-        <v>1.017545867086618</v>
+        <v>1.017545867086639</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.674684189805888</v>
+        <v>1.674684189805944</v>
       </c>
       <c r="L4">
-        <v>28.31615679888569</v>
+        <v>28.3161567988858</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.04891558041313715</v>
+        <v>0.04891558041288846</v>
       </c>
       <c r="D5">
-        <v>0.03918143766307525</v>
+        <v>0.039181437662962</v>
       </c>
       <c r="E5">
         <v>2.185198990978122</v>
       </c>
       <c r="F5">
-        <v>1.379955540170741</v>
+        <v>1.379955540170712</v>
       </c>
       <c r="G5">
         <v>1.090332072305131</v>
       </c>
       <c r="H5">
-        <v>0.9279229431630753</v>
+        <v>0.9279229431630682</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.581741135737516</v>
+        <v>1.581741135737502</v>
       </c>
       <c r="L5">
-        <v>26.85461396454423</v>
+        <v>26.854613964544</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,10 +567,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04853925421529226</v>
+        <v>0.04853925421553384</v>
       </c>
       <c r="D6">
-        <v>0.03819234802582416</v>
+        <v>0.03819234802589611</v>
       </c>
       <c r="E6">
         <v>2.164715078693533</v>
@@ -579,10 +579,10 @@
         <v>1.361150181622932</v>
       </c>
       <c r="G6">
-        <v>1.074421068696836</v>
+        <v>1.074421068696843</v>
       </c>
       <c r="H6">
-        <v>0.9137420246082186</v>
+        <v>0.9137420246082328</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.566663957893326</v>
+        <v>1.566663957893297</v>
       </c>
       <c r="L6">
-        <v>26.61626075433878</v>
+        <v>26.6162607543389</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05116630265819566</v>
+        <v>0.05116630265832356</v>
       </c>
       <c r="D7">
-        <v>0.04543438211797435</v>
+        <v>0.04543438211796413</v>
       </c>
       <c r="E7">
         <v>2.309603380618015</v>
@@ -617,10 +617,10 @@
         <v>1.496524577159718</v>
       </c>
       <c r="G7">
-        <v>1.189244259438112</v>
+        <v>1.189244259438141</v>
       </c>
       <c r="H7">
-        <v>1.016287263435075</v>
+        <v>1.016287263435068</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>1.673405186999645</v>
       </c>
       <c r="L7">
-        <v>28.29613535756579</v>
+        <v>28.29613535756567</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06327304415757595</v>
+        <v>0.06327304415749069</v>
       </c>
       <c r="D8">
-        <v>0.09088271340829657</v>
+        <v>0.09088271340841558</v>
       </c>
       <c r="E8">
-        <v>3.047662319191446</v>
+        <v>3.04766231919146</v>
       </c>
       <c r="F8">
-        <v>2.262720777937261</v>
+        <v>2.26272077793719</v>
       </c>
       <c r="G8">
-        <v>1.849094461443755</v>
+        <v>1.849094461443698</v>
       </c>
       <c r="H8">
-        <v>1.612722368258446</v>
+        <v>1.612722368258389</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.220577762363618</v>
+        <v>2.220577762363646</v>
       </c>
       <c r="L8">
         <v>36.62612031983809</v>
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06327304415757595</v>
+        <v>0.06327304415749069</v>
       </c>
       <c r="D9">
-        <v>0.09088271340829657</v>
+        <v>0.09088271340841558</v>
       </c>
       <c r="E9">
-        <v>3.047662319191446</v>
+        <v>3.04766231919146</v>
       </c>
       <c r="F9">
-        <v>2.262720777937261</v>
+        <v>2.26272077793719</v>
       </c>
       <c r="G9">
-        <v>1.849094461443755</v>
+        <v>1.849094461443698</v>
       </c>
       <c r="H9">
-        <v>1.612722368258446</v>
+        <v>1.612722368258389</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.220577762363618</v>
+        <v>2.220577762363646</v>
       </c>
       <c r="L9">
         <v>36.62612031983809</v>
@@ -719,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06327304415757595</v>
+        <v>0.06327304415749069</v>
       </c>
       <c r="D10">
-        <v>0.09088271340829657</v>
+        <v>0.09088271340841558</v>
       </c>
       <c r="E10">
-        <v>3.047662319191446</v>
+        <v>3.04766231919146</v>
       </c>
       <c r="F10">
-        <v>2.262720777937261</v>
+        <v>2.26272077793719</v>
       </c>
       <c r="G10">
-        <v>1.849094461443755</v>
+        <v>1.849094461443698</v>
       </c>
       <c r="H10">
-        <v>1.612722368258446</v>
+        <v>1.612722368258389</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.220577762363618</v>
+        <v>2.220577762363646</v>
       </c>
       <c r="L10">
         <v>36.62612031983809</v>
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.06327304415757595</v>
+        <v>0.06327304415749069</v>
       </c>
       <c r="D11">
-        <v>0.09088271340829657</v>
+        <v>0.09088271340841558</v>
       </c>
       <c r="E11">
-        <v>3.047662319191446</v>
+        <v>3.04766231919146</v>
       </c>
       <c r="F11">
-        <v>2.262720777937261</v>
+        <v>2.26272077793719</v>
       </c>
       <c r="G11">
-        <v>1.849094461443755</v>
+        <v>1.849094461443698</v>
       </c>
       <c r="H11">
-        <v>1.612722368258446</v>
+        <v>1.612722368258389</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.220577762363618</v>
+        <v>2.220577762363646</v>
       </c>
       <c r="L11">
         <v>36.62612031983809</v>
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.06327304415757595</v>
+        <v>0.06327304415749069</v>
       </c>
       <c r="D12">
-        <v>0.09088271340829657</v>
+        <v>0.09088271340841558</v>
       </c>
       <c r="E12">
-        <v>3.047662319191446</v>
+        <v>3.04766231919146</v>
       </c>
       <c r="F12">
-        <v>2.262720777937261</v>
+        <v>2.26272077793719</v>
       </c>
       <c r="G12">
-        <v>1.849094461443755</v>
+        <v>1.849094461443698</v>
       </c>
       <c r="H12">
-        <v>1.612722368258446</v>
+        <v>1.612722368258389</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.220577762363618</v>
+        <v>2.220577762363646</v>
       </c>
       <c r="L12">
         <v>36.62612031983809</v>
@@ -833,22 +833,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.06327304415757595</v>
+        <v>0.06327304415749069</v>
       </c>
       <c r="D13">
-        <v>0.09088271340829657</v>
+        <v>0.09088271340841558</v>
       </c>
       <c r="E13">
-        <v>3.047662319191446</v>
+        <v>3.04766231919146</v>
       </c>
       <c r="F13">
-        <v>2.262720777937261</v>
+        <v>2.26272077793719</v>
       </c>
       <c r="G13">
-        <v>1.849094461443755</v>
+        <v>1.849094461443698</v>
       </c>
       <c r="H13">
-        <v>1.612722368258446</v>
+        <v>1.612722368258389</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.220577762363618</v>
+        <v>2.220577762363646</v>
       </c>
       <c r="L13">
         <v>36.62612031983809</v>
@@ -871,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.06327304415757595</v>
+        <v>0.06327304415749069</v>
       </c>
       <c r="D14">
-        <v>0.09088271340829657</v>
+        <v>0.09088271340841558</v>
       </c>
       <c r="E14">
-        <v>3.047662319191446</v>
+        <v>3.04766231919146</v>
       </c>
       <c r="F14">
-        <v>2.262720777937261</v>
+        <v>2.26272077793719</v>
       </c>
       <c r="G14">
-        <v>1.849094461443755</v>
+        <v>1.849094461443698</v>
       </c>
       <c r="H14">
-        <v>1.612722368258446</v>
+        <v>1.612722368258389</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.220577762363618</v>
+        <v>2.220577762363646</v>
       </c>
       <c r="L14">
         <v>36.62612031983809</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.06327304415757595</v>
+        <v>0.06327304415749069</v>
       </c>
       <c r="D15">
-        <v>0.09088271340829657</v>
+        <v>0.09088271340841558</v>
       </c>
       <c r="E15">
-        <v>3.047662319191446</v>
+        <v>3.04766231919146</v>
       </c>
       <c r="F15">
-        <v>2.262720777937261</v>
+        <v>2.26272077793719</v>
       </c>
       <c r="G15">
-        <v>1.849094461443755</v>
+        <v>1.849094461443698</v>
       </c>
       <c r="H15">
-        <v>1.612722368258446</v>
+        <v>1.612722368258389</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.220577762363618</v>
+        <v>2.220577762363646</v>
       </c>
       <c r="L15">
         <v>36.62612031983809</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06327304415757595</v>
+        <v>0.06327304415749069</v>
       </c>
       <c r="D16">
-        <v>0.09088271340829657</v>
+        <v>0.09088271340841558</v>
       </c>
       <c r="E16">
-        <v>3.047662319191446</v>
+        <v>3.04766231919146</v>
       </c>
       <c r="F16">
-        <v>2.262720777937261</v>
+        <v>2.26272077793719</v>
       </c>
       <c r="G16">
-        <v>1.849094461443755</v>
+        <v>1.849094461443698</v>
       </c>
       <c r="H16">
-        <v>1.612722368258446</v>
+        <v>1.612722368258389</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.220577762363618</v>
+        <v>2.220577762363646</v>
       </c>
       <c r="L16">
         <v>36.62612031983809</v>
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06327304415757595</v>
+        <v>0.06327304415749069</v>
       </c>
       <c r="D17">
-        <v>0.09088271340829657</v>
+        <v>0.09088271340841558</v>
       </c>
       <c r="E17">
-        <v>3.047662319191446</v>
+        <v>3.04766231919146</v>
       </c>
       <c r="F17">
-        <v>2.262720777937261</v>
+        <v>2.26272077793719</v>
       </c>
       <c r="G17">
-        <v>1.849094461443755</v>
+        <v>1.849094461443698</v>
       </c>
       <c r="H17">
-        <v>1.612722368258446</v>
+        <v>1.612722368258389</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.220577762363618</v>
+        <v>2.220577762363646</v>
       </c>
       <c r="L17">
         <v>36.62612031983809</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06327304415757595</v>
+        <v>0.06327304415749069</v>
       </c>
       <c r="D18">
-        <v>0.09088271340829657</v>
+        <v>0.09088271340841558</v>
       </c>
       <c r="E18">
-        <v>3.047662319191446</v>
+        <v>3.04766231919146</v>
       </c>
       <c r="F18">
-        <v>2.262720777937261</v>
+        <v>2.26272077793719</v>
       </c>
       <c r="G18">
-        <v>1.849094461443755</v>
+        <v>1.849094461443698</v>
       </c>
       <c r="H18">
-        <v>1.612722368258446</v>
+        <v>1.612722368258389</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.220577762363618</v>
+        <v>2.220577762363646</v>
       </c>
       <c r="L18">
         <v>36.62612031983809</v>
@@ -1061,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06327304415757595</v>
+        <v>0.06327304415749069</v>
       </c>
       <c r="D19">
-        <v>0.09088271340829657</v>
+        <v>0.09088271340841558</v>
       </c>
       <c r="E19">
-        <v>3.047662319191446</v>
+        <v>3.04766231919146</v>
       </c>
       <c r="F19">
-        <v>2.262720777937261</v>
+        <v>2.26272077793719</v>
       </c>
       <c r="G19">
-        <v>1.849094461443755</v>
+        <v>1.849094461443698</v>
       </c>
       <c r="H19">
-        <v>1.612722368258446</v>
+        <v>1.612722368258389</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.220577762363618</v>
+        <v>2.220577762363646</v>
       </c>
       <c r="L19">
         <v>36.62612031983809</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06327304415757595</v>
+        <v>0.06327304415749069</v>
       </c>
       <c r="D20">
-        <v>0.09088271340829657</v>
+        <v>0.09088271340841558</v>
       </c>
       <c r="E20">
-        <v>3.047662319191446</v>
+        <v>3.04766231919146</v>
       </c>
       <c r="F20">
-        <v>2.262720777937261</v>
+        <v>2.26272077793719</v>
       </c>
       <c r="G20">
-        <v>1.849094461443755</v>
+        <v>1.849094461443698</v>
       </c>
       <c r="H20">
-        <v>1.612722368258446</v>
+        <v>1.612722368258389</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.220577762363618</v>
+        <v>2.220577762363646</v>
       </c>
       <c r="L20">
         <v>36.62612031983809</v>
@@ -1137,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.06327304415757595</v>
+        <v>0.06327304415749069</v>
       </c>
       <c r="D21">
-        <v>0.09088271340829657</v>
+        <v>0.09088271340841558</v>
       </c>
       <c r="E21">
-        <v>3.047662319191446</v>
+        <v>3.04766231919146</v>
       </c>
       <c r="F21">
-        <v>2.262720777937261</v>
+        <v>2.26272077793719</v>
       </c>
       <c r="G21">
-        <v>1.849094461443755</v>
+        <v>1.849094461443698</v>
       </c>
       <c r="H21">
-        <v>1.612722368258446</v>
+        <v>1.612722368258389</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.220577762363618</v>
+        <v>2.220577762363646</v>
       </c>
       <c r="L21">
         <v>36.62612031983809</v>
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.06327304415757595</v>
+        <v>0.06327304415749069</v>
       </c>
       <c r="D22">
-        <v>0.09088271340829657</v>
+        <v>0.09088271340841558</v>
       </c>
       <c r="E22">
-        <v>3.047662319191446</v>
+        <v>3.04766231919146</v>
       </c>
       <c r="F22">
-        <v>2.262720777937261</v>
+        <v>2.26272077793719</v>
       </c>
       <c r="G22">
-        <v>1.849094461443755</v>
+        <v>1.849094461443698</v>
       </c>
       <c r="H22">
-        <v>1.612722368258446</v>
+        <v>1.612722368258389</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.220577762363618</v>
+        <v>2.220577762363646</v>
       </c>
       <c r="L22">
         <v>36.62612031983809</v>
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.06327304415757595</v>
+        <v>0.06327304415749069</v>
       </c>
       <c r="D23">
-        <v>0.09088271340829657</v>
+        <v>0.09088271340841558</v>
       </c>
       <c r="E23">
-        <v>3.047662319191446</v>
+        <v>3.04766231919146</v>
       </c>
       <c r="F23">
-        <v>2.262720777937261</v>
+        <v>2.26272077793719</v>
       </c>
       <c r="G23">
-        <v>1.849094461443755</v>
+        <v>1.849094461443698</v>
       </c>
       <c r="H23">
-        <v>1.612722368258446</v>
+        <v>1.612722368258389</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.220577762363618</v>
+        <v>2.220577762363646</v>
       </c>
       <c r="L23">
         <v>36.62612031983809</v>
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06327304415757595</v>
+        <v>0.06327304415749069</v>
       </c>
       <c r="D24">
-        <v>0.09088271340829657</v>
+        <v>0.09088271340841558</v>
       </c>
       <c r="E24">
-        <v>3.047662319191446</v>
+        <v>3.04766231919146</v>
       </c>
       <c r="F24">
-        <v>2.262720777937261</v>
+        <v>2.26272077793719</v>
       </c>
       <c r="G24">
-        <v>1.849094461443755</v>
+        <v>1.849094461443698</v>
       </c>
       <c r="H24">
-        <v>1.612722368258446</v>
+        <v>1.612722368258389</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.220577762363618</v>
+        <v>2.220577762363646</v>
       </c>
       <c r="L24">
         <v>36.62612031983809</v>
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.06327304415757595</v>
+        <v>0.06327304415749069</v>
       </c>
       <c r="D25">
-        <v>0.09088271340829657</v>
+        <v>0.09088271340841558</v>
       </c>
       <c r="E25">
-        <v>3.047662319191446</v>
+        <v>3.04766231919146</v>
       </c>
       <c r="F25">
-        <v>2.262720777937261</v>
+        <v>2.26272077793719</v>
       </c>
       <c r="G25">
-        <v>1.849094461443755</v>
+        <v>1.849094461443698</v>
       </c>
       <c r="H25">
-        <v>1.612722368258446</v>
+        <v>1.612722368258389</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.220577762363618</v>
+        <v>2.220577762363646</v>
       </c>
       <c r="L25">
         <v>36.62612031983809</v>

--- a/Code/Results/Cases/Case_0_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06674687542091107</v>
+        <v>0.06663816711130721</v>
       </c>
       <c r="D2">
-        <v>0.1086016058944121</v>
+        <v>0.108294634195901</v>
       </c>
       <c r="E2">
-        <v>3.287844038219134</v>
+        <v>3.287278170336123</v>
       </c>
       <c r="F2">
-        <v>2.535840369699443</v>
+        <v>2.531139215002469</v>
       </c>
       <c r="G2">
-        <v>2.087519145866324</v>
+        <v>0.7491498936908272</v>
       </c>
       <c r="H2">
-        <v>1.830461771475086</v>
+        <v>1.336402285150726</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.826793496351058</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.399852935142931</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>39.25077545956015</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>2.399470667071199</v>
+      </c>
+      <c r="M2">
+        <v>39.24326754805037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05692143451009457</v>
+        <v>0.05682963235017979</v>
       </c>
       <c r="D3">
-        <v>0.06430569232810157</v>
+        <v>0.06413642902973304</v>
       </c>
       <c r="E3">
-        <v>2.644235343175424</v>
+        <v>2.64394874181491</v>
       </c>
       <c r="F3">
-        <v>1.829014260643177</v>
+        <v>1.825925631554526</v>
       </c>
       <c r="G3">
-        <v>1.473729740086483</v>
+        <v>0.532060544026649</v>
       </c>
       <c r="H3">
-        <v>1.272134271134604</v>
+        <v>0.9418172402197627</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.269775608887684</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.920784444137098</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>32.12096500701705</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>1.920633301035608</v>
+      </c>
+      <c r="M3">
+        <v>32.11710037277481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05119725517052132</v>
+        <v>0.05111512672364427</v>
       </c>
       <c r="D4">
-        <v>0.04552451608848829</v>
+        <v>0.0454087028285084</v>
       </c>
       <c r="E4">
-        <v>2.311337632444335</v>
+        <v>2.31113568715314</v>
       </c>
       <c r="F4">
-        <v>1.498177706138122</v>
+        <v>1.495754412438416</v>
       </c>
       <c r="G4">
-        <v>1.190650362040628</v>
+        <v>0.4307212090009926</v>
       </c>
       <c r="H4">
-        <v>1.017545867086639</v>
+        <v>0.7609912492712851</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.015719086412979</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.674684189805944</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>28.3161567988858</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>1.674601683155785</v>
+      </c>
+      <c r="M4">
+        <v>28.31353409195185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.04891558041288846</v>
+        <v>0.04883727850651809</v>
       </c>
       <c r="D5">
-        <v>0.039181437662962</v>
+        <v>0.0390831068128854</v>
       </c>
       <c r="E5">
-        <v>2.185198990978122</v>
+        <v>2.185022110999981</v>
       </c>
       <c r="F5">
-        <v>1.379955540170712</v>
+        <v>1.377758444242488</v>
       </c>
       <c r="G5">
-        <v>1.090332072305131</v>
+        <v>0.3945380808695518</v>
       </c>
       <c r="H5">
-        <v>0.9279229431630682</v>
+        <v>0.6971736623978302</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.9262755369026578</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.581741135737502</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>26.854613964544</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>1.581678369666363</v>
+      </c>
+      <c r="M5">
+        <v>26.85237712494165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04853925421553384</v>
+        <v>0.04846158192560779</v>
       </c>
       <c r="D6">
-        <v>0.03819234802589611</v>
+        <v>0.03809671845361029</v>
       </c>
       <c r="E6">
-        <v>2.164715078693533</v>
+        <v>2.164541964961927</v>
       </c>
       <c r="F6">
-        <v>1.361150181622932</v>
+        <v>1.358988537718403</v>
       </c>
       <c r="G6">
-        <v>1.074421068696843</v>
+        <v>0.3887834829218662</v>
       </c>
       <c r="H6">
-        <v>0.9137420246082328</v>
+        <v>0.687067381414451</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.9121226555570772</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.566663957893297</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>26.6162607543389</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>1.566604118258795</v>
+      </c>
+      <c r="M6">
+        <v>26.61408267046914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05116630265832356</v>
+        <v>0.05108422622828357</v>
       </c>
       <c r="D7">
-        <v>0.04543438211796413</v>
+        <v>0.045318819227679</v>
       </c>
       <c r="E7">
-        <v>2.309603380618015</v>
+        <v>2.309401802976154</v>
       </c>
       <c r="F7">
-        <v>1.496524577159718</v>
+        <v>1.494104486610027</v>
       </c>
       <c r="G7">
-        <v>1.189244259438141</v>
+        <v>0.4302151659887841</v>
       </c>
       <c r="H7">
-        <v>1.016287263435068</v>
+        <v>0.7600956607193865</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.014463028480897</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.673405186999645</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>28.29613535756567</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>1.673322972728187</v>
+      </c>
+      <c r="M7">
+        <v>28.29351824611757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06327304415749069</v>
+        <v>0.06317036528950837</v>
       </c>
       <c r="D8">
-        <v>0.09088271340841558</v>
+        <v>0.09063301141605251</v>
       </c>
       <c r="E8">
-        <v>3.04766231919146</v>
+        <v>3.047223643994982</v>
       </c>
       <c r="F8">
-        <v>2.26272077793719</v>
+        <v>2.258677738827672</v>
       </c>
       <c r="G8">
-        <v>1.849094461443698</v>
+        <v>0.6651621916811905</v>
       </c>
       <c r="H8">
-        <v>1.612722368258389</v>
+        <v>1.182813192532549</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.609591639949315</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.220577762363646</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>36.62612031983809</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>2.220300891121909</v>
+      </c>
+      <c r="M8">
+        <v>36.62020551857717</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06327304415749069</v>
+        <v>0.06317036528950837</v>
       </c>
       <c r="D9">
-        <v>0.09088271340841558</v>
+        <v>0.09063301141605251</v>
       </c>
       <c r="E9">
-        <v>3.04766231919146</v>
+        <v>3.047223643994982</v>
       </c>
       <c r="F9">
-        <v>2.26272077793719</v>
+        <v>2.258677738827672</v>
       </c>
       <c r="G9">
-        <v>1.849094461443698</v>
+        <v>0.6651621916811905</v>
       </c>
       <c r="H9">
-        <v>1.612722368258389</v>
+        <v>1.182813192532549</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.609591639949315</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.220577762363646</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>36.62612031983809</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>2.220300891121909</v>
+      </c>
+      <c r="M9">
+        <v>36.62020551857717</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06327304415749069</v>
+        <v>0.06317036528950837</v>
       </c>
       <c r="D10">
-        <v>0.09088271340841558</v>
+        <v>0.09063301141605251</v>
       </c>
       <c r="E10">
-        <v>3.04766231919146</v>
+        <v>3.047223643994982</v>
       </c>
       <c r="F10">
-        <v>2.26272077793719</v>
+        <v>2.258677738827672</v>
       </c>
       <c r="G10">
-        <v>1.849094461443698</v>
+        <v>0.6651621916811905</v>
       </c>
       <c r="H10">
-        <v>1.612722368258389</v>
+        <v>1.182813192532549</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.609591639949315</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.220577762363646</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>36.62612031983809</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>2.220300891121909</v>
+      </c>
+      <c r="M10">
+        <v>36.62020551857717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.06327304415749069</v>
+        <v>0.06317036528950837</v>
       </c>
       <c r="D11">
-        <v>0.09088271340841558</v>
+        <v>0.09063301141605251</v>
       </c>
       <c r="E11">
-        <v>3.04766231919146</v>
+        <v>3.047223643994982</v>
       </c>
       <c r="F11">
-        <v>2.26272077793719</v>
+        <v>2.258677738827672</v>
       </c>
       <c r="G11">
-        <v>1.849094461443698</v>
+        <v>0.6651621916811905</v>
       </c>
       <c r="H11">
-        <v>1.612722368258389</v>
+        <v>1.182813192532549</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.609591639949315</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.220577762363646</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>36.62612031983809</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>2.220300891121909</v>
+      </c>
+      <c r="M11">
+        <v>36.62020551857717</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.06327304415749069</v>
+        <v>0.06317036528950837</v>
       </c>
       <c r="D12">
-        <v>0.09088271340841558</v>
+        <v>0.09063301141605251</v>
       </c>
       <c r="E12">
-        <v>3.04766231919146</v>
+        <v>3.047223643994982</v>
       </c>
       <c r="F12">
-        <v>2.26272077793719</v>
+        <v>2.258677738827672</v>
       </c>
       <c r="G12">
-        <v>1.849094461443698</v>
+        <v>0.6651621916811905</v>
       </c>
       <c r="H12">
-        <v>1.612722368258389</v>
+        <v>1.182813192532549</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.609591639949315</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.220577762363646</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>36.62612031983809</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>2.220300891121909</v>
+      </c>
+      <c r="M12">
+        <v>36.62020551857717</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.06327304415749069</v>
+        <v>0.06317036528950837</v>
       </c>
       <c r="D13">
-        <v>0.09088271340841558</v>
+        <v>0.09063301141605251</v>
       </c>
       <c r="E13">
-        <v>3.04766231919146</v>
+        <v>3.047223643994982</v>
       </c>
       <c r="F13">
-        <v>2.26272077793719</v>
+        <v>2.258677738827672</v>
       </c>
       <c r="G13">
-        <v>1.849094461443698</v>
+        <v>0.6651621916811905</v>
       </c>
       <c r="H13">
-        <v>1.612722368258389</v>
+        <v>1.182813192532549</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.609591639949315</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.220577762363646</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>36.62612031983809</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>2.220300891121909</v>
+      </c>
+      <c r="M13">
+        <v>36.62020551857717</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.06327304415749069</v>
+        <v>0.06317036528950837</v>
       </c>
       <c r="D14">
-        <v>0.09088271340841558</v>
+        <v>0.09063301141605251</v>
       </c>
       <c r="E14">
-        <v>3.04766231919146</v>
+        <v>3.047223643994982</v>
       </c>
       <c r="F14">
-        <v>2.26272077793719</v>
+        <v>2.258677738827672</v>
       </c>
       <c r="G14">
-        <v>1.849094461443698</v>
+        <v>0.6651621916811905</v>
       </c>
       <c r="H14">
-        <v>1.612722368258389</v>
+        <v>1.182813192532549</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.609591639949315</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.220577762363646</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>36.62612031983809</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>2.220300891121909</v>
+      </c>
+      <c r="M14">
+        <v>36.62020551857717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.06327304415749069</v>
+        <v>0.06317036528950837</v>
       </c>
       <c r="D15">
-        <v>0.09088271340841558</v>
+        <v>0.09063301141605251</v>
       </c>
       <c r="E15">
-        <v>3.04766231919146</v>
+        <v>3.047223643994982</v>
       </c>
       <c r="F15">
-        <v>2.26272077793719</v>
+        <v>2.258677738827672</v>
       </c>
       <c r="G15">
-        <v>1.849094461443698</v>
+        <v>0.6651621916811905</v>
       </c>
       <c r="H15">
-        <v>1.612722368258389</v>
+        <v>1.182813192532549</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.609591639949315</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.220577762363646</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>36.62612031983809</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>2.220300891121909</v>
+      </c>
+      <c r="M15">
+        <v>36.62020551857717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06327304415749069</v>
+        <v>0.06317036528950837</v>
       </c>
       <c r="D16">
-        <v>0.09088271340841558</v>
+        <v>0.09063301141605251</v>
       </c>
       <c r="E16">
-        <v>3.04766231919146</v>
+        <v>3.047223643994982</v>
       </c>
       <c r="F16">
-        <v>2.26272077793719</v>
+        <v>2.258677738827672</v>
       </c>
       <c r="G16">
-        <v>1.849094461443698</v>
+        <v>0.6651621916811905</v>
       </c>
       <c r="H16">
-        <v>1.612722368258389</v>
+        <v>1.182813192532549</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.609591639949315</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.220577762363646</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>36.62612031983809</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>2.220300891121909</v>
+      </c>
+      <c r="M16">
+        <v>36.62020551857717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06327304415749069</v>
+        <v>0.06317036528950837</v>
       </c>
       <c r="D17">
-        <v>0.09088271340841558</v>
+        <v>0.09063301141605251</v>
       </c>
       <c r="E17">
-        <v>3.04766231919146</v>
+        <v>3.047223643994982</v>
       </c>
       <c r="F17">
-        <v>2.26272077793719</v>
+        <v>2.258677738827672</v>
       </c>
       <c r="G17">
-        <v>1.849094461443698</v>
+        <v>0.6651621916811905</v>
       </c>
       <c r="H17">
-        <v>1.612722368258389</v>
+        <v>1.182813192532549</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.609591639949315</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.220577762363646</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>36.62612031983809</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>2.220300891121909</v>
+      </c>
+      <c r="M17">
+        <v>36.62020551857717</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06327304415749069</v>
+        <v>0.06317036528950837</v>
       </c>
       <c r="D18">
-        <v>0.09088271340841558</v>
+        <v>0.09063301141605251</v>
       </c>
       <c r="E18">
-        <v>3.04766231919146</v>
+        <v>3.047223643994982</v>
       </c>
       <c r="F18">
-        <v>2.26272077793719</v>
+        <v>2.258677738827672</v>
       </c>
       <c r="G18">
-        <v>1.849094461443698</v>
+        <v>0.6651621916811905</v>
       </c>
       <c r="H18">
-        <v>1.612722368258389</v>
+        <v>1.182813192532549</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.609591639949315</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.220577762363646</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>36.62612031983809</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>2.220300891121909</v>
+      </c>
+      <c r="M18">
+        <v>36.62020551857717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06327304415749069</v>
+        <v>0.06317036528950837</v>
       </c>
       <c r="D19">
-        <v>0.09088271340841558</v>
+        <v>0.09063301141605251</v>
       </c>
       <c r="E19">
-        <v>3.04766231919146</v>
+        <v>3.047223643994982</v>
       </c>
       <c r="F19">
-        <v>2.26272077793719</v>
+        <v>2.258677738827672</v>
       </c>
       <c r="G19">
-        <v>1.849094461443698</v>
+        <v>0.6651621916811905</v>
       </c>
       <c r="H19">
-        <v>1.612722368258389</v>
+        <v>1.182813192532549</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.609591639949315</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.220577762363646</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>36.62612031983809</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>2.220300891121909</v>
+      </c>
+      <c r="M19">
+        <v>36.62020551857717</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06327304415749069</v>
+        <v>0.06317036528950837</v>
       </c>
       <c r="D20">
-        <v>0.09088271340841558</v>
+        <v>0.09063301141605251</v>
       </c>
       <c r="E20">
-        <v>3.04766231919146</v>
+        <v>3.047223643994982</v>
       </c>
       <c r="F20">
-        <v>2.26272077793719</v>
+        <v>2.258677738827672</v>
       </c>
       <c r="G20">
-        <v>1.849094461443698</v>
+        <v>0.6651621916811905</v>
       </c>
       <c r="H20">
-        <v>1.612722368258389</v>
+        <v>1.182813192532549</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.609591639949315</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.220577762363646</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>36.62612031983809</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>2.220300891121909</v>
+      </c>
+      <c r="M20">
+        <v>36.62020551857717</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.06327304415749069</v>
+        <v>0.06317036528950837</v>
       </c>
       <c r="D21">
-        <v>0.09088271340841558</v>
+        <v>0.09063301141605251</v>
       </c>
       <c r="E21">
-        <v>3.04766231919146</v>
+        <v>3.047223643994982</v>
       </c>
       <c r="F21">
-        <v>2.26272077793719</v>
+        <v>2.258677738827672</v>
       </c>
       <c r="G21">
-        <v>1.849094461443698</v>
+        <v>0.6651621916811905</v>
       </c>
       <c r="H21">
-        <v>1.612722368258389</v>
+        <v>1.182813192532549</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.609591639949315</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.220577762363646</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>36.62612031983809</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>2.220300891121909</v>
+      </c>
+      <c r="M21">
+        <v>36.62020551857717</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.06327304415749069</v>
+        <v>0.06317036528950837</v>
       </c>
       <c r="D22">
-        <v>0.09088271340841558</v>
+        <v>0.09063301141605251</v>
       </c>
       <c r="E22">
-        <v>3.04766231919146</v>
+        <v>3.047223643994982</v>
       </c>
       <c r="F22">
-        <v>2.26272077793719</v>
+        <v>2.258677738827672</v>
       </c>
       <c r="G22">
-        <v>1.849094461443698</v>
+        <v>0.6651621916811905</v>
       </c>
       <c r="H22">
-        <v>1.612722368258389</v>
+        <v>1.182813192532549</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.609591639949315</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.220577762363646</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>36.62612031983809</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>2.220300891121909</v>
+      </c>
+      <c r="M22">
+        <v>36.62020551857717</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.06327304415749069</v>
+        <v>0.06317036528950837</v>
       </c>
       <c r="D23">
-        <v>0.09088271340841558</v>
+        <v>0.09063301141605251</v>
       </c>
       <c r="E23">
-        <v>3.04766231919146</v>
+        <v>3.047223643994982</v>
       </c>
       <c r="F23">
-        <v>2.26272077793719</v>
+        <v>2.258677738827672</v>
       </c>
       <c r="G23">
-        <v>1.849094461443698</v>
+        <v>0.6651621916811905</v>
       </c>
       <c r="H23">
-        <v>1.612722368258389</v>
+        <v>1.182813192532549</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.609591639949315</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.220577762363646</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>36.62612031983809</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>2.220300891121909</v>
+      </c>
+      <c r="M23">
+        <v>36.62020551857717</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06327304415749069</v>
+        <v>0.06317036528950837</v>
       </c>
       <c r="D24">
-        <v>0.09088271340841558</v>
+        <v>0.09063301141605251</v>
       </c>
       <c r="E24">
-        <v>3.04766231919146</v>
+        <v>3.047223643994982</v>
       </c>
       <c r="F24">
-        <v>2.26272077793719</v>
+        <v>2.258677738827672</v>
       </c>
       <c r="G24">
-        <v>1.849094461443698</v>
+        <v>0.6651621916811905</v>
       </c>
       <c r="H24">
-        <v>1.612722368258389</v>
+        <v>1.182813192532549</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.609591639949315</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.220577762363646</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>36.62612031983809</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>2.220300891121909</v>
+      </c>
+      <c r="M24">
+        <v>36.62020551857717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.06327304415749069</v>
+        <v>0.06317036528950837</v>
       </c>
       <c r="D25">
-        <v>0.09088271340841558</v>
+        <v>0.09063301141605251</v>
       </c>
       <c r="E25">
-        <v>3.04766231919146</v>
+        <v>3.047223643994982</v>
       </c>
       <c r="F25">
-        <v>2.26272077793719</v>
+        <v>2.258677738827672</v>
       </c>
       <c r="G25">
-        <v>1.849094461443698</v>
+        <v>0.6651621916811905</v>
       </c>
       <c r="H25">
-        <v>1.612722368258389</v>
+        <v>1.182813192532549</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.609591639949315</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.220577762363646</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>36.62612031983809</v>
+        <v>2.220300891121909</v>
+      </c>
+      <c r="M25">
+        <v>36.62020551857717</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06663816711130721</v>
+        <v>0.1595400765252464</v>
       </c>
       <c r="D2">
-        <v>0.108294634195901</v>
+        <v>0.04083506474919574</v>
       </c>
       <c r="E2">
-        <v>3.287278170336123</v>
+        <v>0.07500585428321216</v>
       </c>
       <c r="F2">
-        <v>2.531139215002469</v>
+        <v>5.974019844834032</v>
       </c>
       <c r="G2">
-        <v>0.7491498936908272</v>
+        <v>0.0007145064805975235</v>
       </c>
       <c r="H2">
-        <v>1.336402285150726</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.826793496351058</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2980674583966021</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>7.961040700339197</v>
       </c>
       <c r="L2">
-        <v>2.399470667071199</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>39.24326754805037</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1.533430264624855</v>
+      </c>
+      <c r="O2">
+        <v>4.607502239493215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05682963235017979</v>
+        <v>0.1348000478672589</v>
       </c>
       <c r="D3">
-        <v>0.06413642902973304</v>
+        <v>0.03428856474026531</v>
       </c>
       <c r="E3">
-        <v>2.64394874181491</v>
+        <v>0.0672705256211259</v>
       </c>
       <c r="F3">
-        <v>1.825925631554526</v>
+        <v>5.139638200386997</v>
       </c>
       <c r="G3">
-        <v>0.532060544026649</v>
+        <v>0.0007346486866419358</v>
       </c>
       <c r="H3">
-        <v>0.9418172402197627</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.269775608887684</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2581581139971831</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>6.816852704051001</v>
       </c>
       <c r="L3">
-        <v>1.920633301035608</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>32.11710037277481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1.427540038027772</v>
+      </c>
+      <c r="O3">
+        <v>3.949119672439963</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05111512672364427</v>
+        <v>0.1203303254001185</v>
       </c>
       <c r="D4">
-        <v>0.0454087028285084</v>
+        <v>0.03060105476299668</v>
       </c>
       <c r="E4">
-        <v>2.31113568715314</v>
+        <v>0.06275393537505281</v>
       </c>
       <c r="F4">
-        <v>1.495754412438416</v>
+        <v>4.662739580310244</v>
       </c>
       <c r="G4">
-        <v>0.4307212090009926</v>
+        <v>0.0007470095408206561</v>
       </c>
       <c r="H4">
-        <v>0.7609912492712851</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.015719086412979</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2351493520296373</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>6.137465095073082</v>
       </c>
       <c r="L4">
-        <v>1.674601683155785</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>28.31353409195185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.364196185635947</v>
+      </c>
+      <c r="O4">
+        <v>3.573137279491931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.04883727850651809</v>
+        <v>0.1145793422004289</v>
       </c>
       <c r="D5">
-        <v>0.0390831068128854</v>
+        <v>0.02916405719595261</v>
       </c>
       <c r="E5">
-        <v>2.185022110999981</v>
+        <v>0.06096233743424051</v>
       </c>
       <c r="F5">
-        <v>1.377758444242488</v>
+        <v>4.475710914140734</v>
       </c>
       <c r="G5">
-        <v>0.3945380808695518</v>
+        <v>0.0007520622892187578</v>
       </c>
       <c r="H5">
-        <v>0.6971736623978302</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9262755369026578</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.226082000150825</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>5.865254590733315</v>
       </c>
       <c r="L5">
-        <v>1.581678369666363</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>26.85237712494165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.3387651173732</v>
+      </c>
+      <c r="O5">
+        <v>3.42574836370116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04846158192560779</v>
+        <v>0.1136322749867844</v>
       </c>
       <c r="D6">
-        <v>0.03809671845361029</v>
+        <v>0.02892896198242667</v>
       </c>
       <c r="E6">
-        <v>2.164541964961927</v>
+        <v>0.06066755434774507</v>
       </c>
       <c r="F6">
-        <v>1.358988537718403</v>
+        <v>4.445055867260265</v>
       </c>
       <c r="G6">
-        <v>0.3887834829218662</v>
+        <v>0.0007529026770632276</v>
       </c>
       <c r="H6">
-        <v>0.687067381414451</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9121226555570772</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2245933156344648</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>5.820304862603166</v>
       </c>
       <c r="L6">
-        <v>1.566604118258795</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>26.61408267046914</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.334564358585453</v>
+      </c>
+      <c r="O6">
+        <v>3.401593804304468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05108422622828357</v>
+        <v>0.1202522183555601</v>
       </c>
       <c r="D7">
-        <v>0.045318819227679</v>
+        <v>0.03058142973090483</v>
       </c>
       <c r="E7">
-        <v>2.309401802976154</v>
+        <v>0.06272958640998993</v>
       </c>
       <c r="F7">
-        <v>1.494104486610027</v>
+        <v>4.660189518642483</v>
       </c>
       <c r="G7">
-        <v>0.4302151659887841</v>
+        <v>0.0007470776004124786</v>
       </c>
       <c r="H7">
-        <v>0.7600956607193865</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.014463028480897</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2350258948995929</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>6.133776541735472</v>
       </c>
       <c r="L7">
-        <v>1.673322972728187</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>28.29351824611757</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1.363851713421795</v>
+      </c>
+      <c r="O7">
+        <v>3.571127455136121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06317036528950837</v>
+        <v>0.1508361685284854</v>
       </c>
       <c r="D8">
-        <v>0.09063301141605251</v>
+        <v>0.03849687516377998</v>
       </c>
       <c r="E8">
-        <v>3.047223643994982</v>
+        <v>0.0722839153249204</v>
       </c>
       <c r="F8">
-        <v>2.258677738827672</v>
+        <v>5.677904253017431</v>
       </c>
       <c r="G8">
-        <v>0.6651621916811905</v>
+        <v>0.0007214644404938643</v>
       </c>
       <c r="H8">
-        <v>1.182813192532549</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.609591639949315</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2839511436849307</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>7.560930188033097</v>
       </c>
       <c r="L8">
-        <v>2.220300891121909</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>36.62020551857717</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1.496546865285069</v>
+      </c>
+      <c r="O8">
+        <v>4.373764680156427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06317036528950837</v>
+        <v>0.2186741683132567</v>
       </c>
       <c r="D9">
-        <v>0.09063301141605251</v>
+        <v>0.05774503720027369</v>
       </c>
       <c r="E9">
-        <v>3.047223643994982</v>
+        <v>0.09344465267331259</v>
       </c>
       <c r="F9">
-        <v>2.258677738827672</v>
+        <v>8.050566876448386</v>
       </c>
       <c r="G9">
-        <v>0.6651621916811905</v>
+        <v>0.0006701494937149629</v>
       </c>
       <c r="H9">
-        <v>1.182813192532549</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.609591639949315</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.395805888531541</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>10.61416356418255</v>
       </c>
       <c r="L9">
-        <v>2.220300891121909</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>36.62020551857717</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1.77216654949433</v>
+      </c>
+      <c r="O9">
+        <v>6.249153121663255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06317036528950837</v>
+        <v>0.2776956557107866</v>
       </c>
       <c r="D10">
-        <v>0.09063301141605251</v>
+        <v>0.07645275169785037</v>
       </c>
       <c r="E10">
-        <v>3.047223643994982</v>
+        <v>0.1116435552801889</v>
       </c>
       <c r="F10">
-        <v>2.258677738827672</v>
+        <v>10.22040489835933</v>
       </c>
       <c r="G10">
-        <v>0.6651621916811905</v>
+        <v>0.0006296633780830606</v>
       </c>
       <c r="H10">
-        <v>1.182813192532549</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1.609591639949315</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.4959828028697046</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.15838683502244</v>
       </c>
       <c r="L10">
-        <v>2.220300891121909</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>36.62020551857717</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1.987863686546433</v>
+      </c>
+      <c r="O10">
+        <v>7.969168929573129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.06317036528950837</v>
+        <v>0.3082599252828544</v>
       </c>
       <c r="D11">
-        <v>0.09063301141605251</v>
+        <v>0.0868872721723335</v>
       </c>
       <c r="E11">
-        <v>3.047223643994982</v>
+        <v>0.120955404901121</v>
       </c>
       <c r="F11">
-        <v>2.258677738827672</v>
+        <v>11.37767760858398</v>
       </c>
       <c r="G11">
-        <v>0.6651621916811905</v>
+        <v>0.0006098059134835854</v>
       </c>
       <c r="H11">
-        <v>1.182813192532549</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1.609591639949315</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5487273885889579</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.43865130892277</v>
       </c>
       <c r="L11">
-        <v>2.220300891121909</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>36.62020551857717</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>2.090079433178289</v>
+      </c>
+      <c r="O11">
+        <v>8.888391077564847</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.06317036528950837</v>
+        <v>0.320622630182072</v>
       </c>
       <c r="D12">
-        <v>0.09063301141605251</v>
+        <v>0.09125741047860458</v>
       </c>
       <c r="E12">
-        <v>3.047223643994982</v>
+        <v>0.1246972435411671</v>
       </c>
       <c r="F12">
-        <v>2.258677738827672</v>
+        <v>11.85189605878116</v>
       </c>
       <c r="G12">
-        <v>0.6651621916811905</v>
+        <v>0.0006019553738509968</v>
       </c>
       <c r="H12">
-        <v>1.182813192532549</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1.609591639949315</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.570216181472631</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.94966393685971</v>
       </c>
       <c r="L12">
-        <v>2.220300891121909</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>36.62020551857717</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>2.129525527162798</v>
+      </c>
+      <c r="O12">
+        <v>9.265429161814353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.06317036528950837</v>
+        <v>0.3179192261094528</v>
       </c>
       <c r="D13">
-        <v>0.09063301141605251</v>
+        <v>0.09029430552706685</v>
       </c>
       <c r="E13">
-        <v>3.047223643994982</v>
+        <v>0.1238802583532816</v>
       </c>
       <c r="F13">
-        <v>2.258677738827672</v>
+        <v>11.747901440498</v>
       </c>
       <c r="G13">
-        <v>0.6651621916811905</v>
+        <v>0.0006036636762805792</v>
       </c>
       <c r="H13">
-        <v>1.182813192532549</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1.609591639949315</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5655097374232554</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.83824786849701</v>
       </c>
       <c r="L13">
-        <v>2.220300891121909</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>36.62020551857717</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>2.120994128190063</v>
+      </c>
+      <c r="O13">
+        <v>9.182727787179601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.06317036528950837</v>
+        <v>0.3092591861611567</v>
       </c>
       <c r="D14">
-        <v>0.09063301141605251</v>
+        <v>0.08723726767739493</v>
       </c>
       <c r="E14">
-        <v>3.047223643994982</v>
+        <v>0.1212583957445794</v>
       </c>
       <c r="F14">
-        <v>2.258677738827672</v>
+        <v>11.41587912818039</v>
       </c>
       <c r="G14">
-        <v>0.6651621916811905</v>
+        <v>0.000609167663004799</v>
       </c>
       <c r="H14">
-        <v>1.182813192532549</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1.609591639949315</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5504610633266083</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.48009955766713</v>
       </c>
       <c r="L14">
-        <v>2.220300891121909</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>36.62020551857717</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>2.093308782045312</v>
+      </c>
+      <c r="O14">
+        <v>8.91875621522027</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.06317036528950837</v>
+        <v>0.3040675247721651</v>
       </c>
       <c r="D15">
-        <v>0.09063301141605251</v>
+        <v>0.08542503149218561</v>
       </c>
       <c r="E15">
-        <v>3.047223643994982</v>
+        <v>0.1196831807438095</v>
       </c>
       <c r="F15">
-        <v>2.258677738827672</v>
+        <v>11.21765214599699</v>
       </c>
       <c r="G15">
-        <v>0.6651621916811905</v>
+        <v>0.0006124909616195286</v>
       </c>
       <c r="H15">
-        <v>1.182813192532549</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1.609591639949315</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.5414600224889625</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.26447715613392</v>
       </c>
       <c r="L15">
-        <v>2.220300891121909</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>36.62020551857717</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>2.076452503371513</v>
+      </c>
+      <c r="O15">
+        <v>8.761207049043719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06317036528950837</v>
+        <v>0.2757915733880765</v>
       </c>
       <c r="D16">
-        <v>0.09063301141605251</v>
+        <v>0.07581985807321701</v>
       </c>
       <c r="E16">
-        <v>3.047223643994982</v>
+        <v>0.1110607079585435</v>
       </c>
       <c r="F16">
-        <v>2.258677738827672</v>
+        <v>10.1490400984263</v>
       </c>
       <c r="G16">
-        <v>0.6651621916811905</v>
+        <v>0.0006309230848610597</v>
       </c>
       <c r="H16">
-        <v>1.182813192532549</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1.609591639949315</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4927155406252979</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.07781454666517</v>
       </c>
       <c r="L16">
-        <v>2.220300891121909</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>36.62020551857717</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1.981277589858962</v>
+      </c>
+      <c r="O16">
+        <v>7.912525678580096</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06317036528950837</v>
+        <v>0.2595374980866438</v>
       </c>
       <c r="D17">
-        <v>0.09063301141605251</v>
+        <v>0.07049781991452164</v>
       </c>
       <c r="E17">
-        <v>3.047223643994982</v>
+        <v>0.106072933358071</v>
       </c>
       <c r="F17">
-        <v>2.258677738827672</v>
+        <v>9.543431372006864</v>
       </c>
       <c r="G17">
-        <v>0.6651621916811905</v>
+        <v>0.0006417933536243691</v>
       </c>
       <c r="H17">
-        <v>1.182813192532549</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.609591639949315</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4649171924930329</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.3860209452728</v>
       </c>
       <c r="L17">
-        <v>2.220300891121909</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>36.62020551857717</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1.924029597518995</v>
+      </c>
+      <c r="O17">
+        <v>7.432043048424248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06317036528950837</v>
+        <v>0.2505176760076182</v>
       </c>
       <c r="D18">
-        <v>0.09063301141605251</v>
+        <v>0.06760624879387223</v>
       </c>
       <c r="E18">
-        <v>3.047223643994982</v>
+        <v>0.1032959177339734</v>
       </c>
       <c r="F18">
-        <v>2.258677738827672</v>
+        <v>9.21018917004983</v>
       </c>
       <c r="G18">
-        <v>0.6651621916811905</v>
+        <v>0.0006479201272832218</v>
       </c>
       <c r="H18">
-        <v>1.182813192532549</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1.609591639949315</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.44956433502864</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.99899457135098</v>
       </c>
       <c r="L18">
-        <v>2.220300891121909</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>36.62020551857717</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1.891475984293521</v>
+      </c>
+      <c r="O18">
+        <v>7.167804424825817</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06317036528950837</v>
+        <v>0.2475145855585339</v>
       </c>
       <c r="D19">
-        <v>0.09063301141605251</v>
+        <v>0.06665322462363577</v>
       </c>
       <c r="E19">
-        <v>3.047223643994982</v>
+        <v>0.1023699408521104</v>
       </c>
       <c r="F19">
-        <v>2.258677738827672</v>
+        <v>9.099695184573648</v>
       </c>
       <c r="G19">
-        <v>0.6651621916811905</v>
+        <v>0.000649975735677353</v>
       </c>
       <c r="H19">
-        <v>1.182813192532549</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.609591639949315</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4444646158346046</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11.86963270749658</v>
       </c>
       <c r="L19">
-        <v>2.220300891121909</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>36.62020551857717</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1.88051440729123</v>
+      </c>
+      <c r="O19">
+        <v>7.08021406849889</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06317036528950837</v>
+        <v>0.2612323038560618</v>
       </c>
       <c r="D20">
-        <v>0.09063301141605251</v>
+        <v>0.07104603993811054</v>
       </c>
       <c r="E20">
-        <v>3.047223643994982</v>
+        <v>0.1065940147147266</v>
       </c>
       <c r="F20">
-        <v>2.258677738827672</v>
+        <v>9.606274320028717</v>
       </c>
       <c r="G20">
-        <v>0.6651621916811905</v>
+        <v>0.000640649869736151</v>
       </c>
       <c r="H20">
-        <v>1.182813192532549</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.609591639949315</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.4678078729148467</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.45849090173908</v>
       </c>
       <c r="L20">
-        <v>2.220300891121909</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>36.62020551857717</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1.930084135820664</v>
+      </c>
+      <c r="O20">
+        <v>7.481885384146977</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.06317036528950837</v>
+        <v>0.3117786334547787</v>
       </c>
       <c r="D21">
-        <v>0.09063301141605251</v>
+        <v>0.08812223379614181</v>
       </c>
       <c r="E21">
-        <v>3.047223643994982</v>
+        <v>0.1220219091692734</v>
       </c>
       <c r="F21">
-        <v>2.258677738827672</v>
+        <v>11.51229810357589</v>
       </c>
       <c r="G21">
-        <v>0.6651621916811905</v>
+        <v>0.0006075613623277959</v>
       </c>
       <c r="H21">
-        <v>1.182813192532549</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1.609591639949315</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.554834736635712</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.58449071132907</v>
       </c>
       <c r="L21">
-        <v>2.220300891121909</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>36.62020551857717</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>2.101419059986824</v>
+      </c>
+      <c r="O21">
+        <v>8.995402622998824</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.06317036528950837</v>
+        <v>0.3496729580851081</v>
       </c>
       <c r="D22">
-        <v>0.09063301141605251</v>
+        <v>0.101875065530038</v>
       </c>
       <c r="E22">
-        <v>3.047223643994982</v>
+        <v>0.1334304696305679</v>
       </c>
       <c r="F22">
-        <v>2.258677738827672</v>
+        <v>12.97965542239007</v>
       </c>
       <c r="G22">
-        <v>0.6651621916811905</v>
+        <v>0.0005838787085210573</v>
       </c>
       <c r="H22">
-        <v>1.182813192532549</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1.609591639949315</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6210460698453062</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.1355353840207</v>
       </c>
       <c r="L22">
-        <v>2.220300891121909</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>36.62020551857717</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>2.217831094835191</v>
+      </c>
+      <c r="O22">
+        <v>10.16292585697897</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.06317036528950837</v>
+        <v>0.3288702623187731</v>
       </c>
       <c r="D23">
-        <v>0.09063301141605251</v>
+        <v>0.09422172485417235</v>
       </c>
       <c r="E23">
-        <v>3.047223643994982</v>
+        <v>0.1271853007860457</v>
       </c>
       <c r="F23">
-        <v>2.258677738827672</v>
+        <v>12.17017829429051</v>
       </c>
       <c r="G23">
-        <v>0.6651621916811905</v>
+        <v>0.0005967718746158625</v>
       </c>
       <c r="H23">
-        <v>1.182813192532549</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1.609591639949315</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5846000315239763</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.28844898810146</v>
       </c>
       <c r="L23">
-        <v>2.220300891121909</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>36.62020551857717</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>2.155224991765806</v>
+      </c>
+      <c r="O23">
+        <v>9.518605077902578</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06317036528950837</v>
+        <v>0.2604650869906067</v>
       </c>
       <c r="D24">
-        <v>0.09063301141605251</v>
+        <v>0.07079767519076086</v>
       </c>
       <c r="E24">
-        <v>3.047223643994982</v>
+        <v>0.1063581562877864</v>
       </c>
       <c r="F24">
-        <v>2.258677738827672</v>
+        <v>9.577817272996185</v>
       </c>
       <c r="G24">
-        <v>0.6651621916811905</v>
+        <v>0.0006411672126495862</v>
       </c>
       <c r="H24">
-        <v>1.182813192532549</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.609591639949315</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.4664990695126932</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.42569448114634</v>
       </c>
       <c r="L24">
-        <v>2.220300891121909</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>36.62020551857717</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1.927345771166102</v>
+      </c>
+      <c r="O24">
+        <v>7.459314903536352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.06317036528950837</v>
+        <v>0.1991207845431262</v>
       </c>
       <c r="D25">
-        <v>0.09063301141605251</v>
+        <v>0.05195401722914283</v>
       </c>
       <c r="E25">
-        <v>3.047223643994982</v>
+        <v>0.08736398911954169</v>
       </c>
       <c r="F25">
-        <v>2.258677738827672</v>
+        <v>7.352241175581327</v>
       </c>
       <c r="G25">
-        <v>0.6651621916811905</v>
+        <v>0.0006843217546187912</v>
       </c>
       <c r="H25">
-        <v>1.182813192532549</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.609591639949315</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3631636656246826</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>9.749004720739947</v>
       </c>
       <c r="L25">
-        <v>2.220300891121909</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>36.62020551857717</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.695615396939928</v>
+      </c>
+      <c r="O25">
+        <v>5.696588143665508</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1595400765252464</v>
+        <v>0.1435022592327329</v>
       </c>
       <c r="D2">
-        <v>0.04083506474919574</v>
+        <v>0.2688287590983407</v>
       </c>
       <c r="E2">
-        <v>0.07500585428321216</v>
+        <v>0.1894029356122289</v>
       </c>
       <c r="F2">
-        <v>5.974019844834032</v>
+        <v>0.4924952549880999</v>
       </c>
       <c r="G2">
-        <v>0.0007145064805975235</v>
+        <v>0.222701787366212</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2046718246520101</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2980674583966021</v>
+        <v>0.1808779439291683</v>
       </c>
       <c r="K2">
-        <v>7.961040700339197</v>
+        <v>5.269137067567272</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.533430264624855</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>4.607502239493215</v>
+        <v>0.8506103789122506</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1348000478672589</v>
+        <v>0.1242199563446746</v>
       </c>
       <c r="D3">
-        <v>0.03428856474026531</v>
+        <v>0.2386023591731998</v>
       </c>
       <c r="E3">
-        <v>0.0672705256211259</v>
+        <v>0.1685908728416692</v>
       </c>
       <c r="F3">
-        <v>5.139638200386997</v>
+        <v>0.471407128468357</v>
       </c>
       <c r="G3">
-        <v>0.0007346486866419358</v>
+        <v>0.2157400972964325</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2094745795755983</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2581581139971831</v>
+        <v>0.1613253540064434</v>
       </c>
       <c r="K3">
-        <v>6.816852704051001</v>
+        <v>4.590169095646331</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.427540038027772</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3.949119672439963</v>
+        <v>0.8454456021130596</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1203303254001185</v>
+        <v>0.1124801714469754</v>
       </c>
       <c r="D4">
-        <v>0.03060105476299668</v>
+        <v>0.2201736234425908</v>
       </c>
       <c r="E4">
-        <v>0.06275393537505281</v>
+        <v>0.155984353015949</v>
       </c>
       <c r="F4">
-        <v>4.662739580310244</v>
+        <v>0.4601252719597824</v>
       </c>
       <c r="G4">
-        <v>0.0007470095408206561</v>
+        <v>0.2127426381510205</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2131919409044087</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2351493520296373</v>
+        <v>0.1495693318463083</v>
       </c>
       <c r="K4">
-        <v>6.137465095073082</v>
+        <v>4.173352884102826</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.364196185635947</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>3.573137279491931</v>
+        <v>0.8465795714086966</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1145793422004289</v>
+        <v>0.1077177446932609</v>
       </c>
       <c r="D5">
-        <v>0.02916405719595261</v>
+        <v>0.2126931103466774</v>
       </c>
       <c r="E5">
-        <v>0.06096233743424051</v>
+        <v>0.1508866065155416</v>
       </c>
       <c r="F5">
-        <v>4.475710914140734</v>
+        <v>0.4559224582708055</v>
       </c>
       <c r="G5">
-        <v>0.0007520622892187578</v>
+        <v>0.2118221279277108</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2148909495223279</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.226082000150825</v>
+        <v>0.1448361592666245</v>
       </c>
       <c r="K5">
-        <v>5.865254590733315</v>
+        <v>4.003464484857204</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.3387651173732</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>3.42574836370116</v>
+        <v>0.8480625068883825</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1136322749867844</v>
+        <v>0.1069281572602563</v>
       </c>
       <c r="D6">
-        <v>0.02892896198242667</v>
+        <v>0.211452652691591</v>
       </c>
       <c r="E6">
-        <v>0.06066755434774507</v>
+        <v>0.1500424095946506</v>
       </c>
       <c r="F6">
-        <v>4.445055867260265</v>
+        <v>0.4552477299172111</v>
       </c>
       <c r="G6">
-        <v>0.0007529026770632276</v>
+        <v>0.2116868866511936</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2151839343200166</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2245933156344648</v>
+        <v>0.1440535460052459</v>
       </c>
       <c r="K6">
-        <v>5.820304862603166</v>
+        <v>3.975251280118755</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.334564358585453</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>3.401593804304468</v>
+        <v>0.8483686574425775</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1202522183555601</v>
+        <v>0.1124158605009455</v>
       </c>
       <c r="D7">
-        <v>0.03058142973090483</v>
+        <v>0.2200726242012792</v>
       </c>
       <c r="E7">
-        <v>0.06272958640998993</v>
+        <v>0.1559154478802149</v>
       </c>
       <c r="F7">
-        <v>4.660189518642483</v>
+        <v>0.4600670247977092</v>
       </c>
       <c r="G7">
-        <v>0.0007470776004124786</v>
+        <v>0.2127290310532786</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2132141203575202</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2350258948995929</v>
+        <v>0.1495052724644452</v>
       </c>
       <c r="K7">
-        <v>6.133776541735472</v>
+        <v>4.171061905191607</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.363851713421795</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>3.571127455136121</v>
+        <v>0.846595516771302</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1508361685284854</v>
+        <v>0.136830922028949</v>
       </c>
       <c r="D8">
-        <v>0.03849687516377998</v>
+        <v>0.2583774852738969</v>
       </c>
       <c r="E8">
-        <v>0.0722839153249204</v>
+        <v>0.1821888531618967</v>
       </c>
       <c r="F8">
-        <v>5.677904253017431</v>
+        <v>0.484863147928948</v>
       </c>
       <c r="G8">
-        <v>0.0007214644404938643</v>
+        <v>0.2200238955871825</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2061627124680925</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2839511436849307</v>
+        <v>0.1740812340464544</v>
       </c>
       <c r="K8">
-        <v>7.560930188033097</v>
+        <v>5.03498183340804</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.496546865285069</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>4.373764680156427</v>
+        <v>0.8478978764017029</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2186741683132567</v>
+        <v>0.185665111445303</v>
       </c>
       <c r="D9">
-        <v>0.05774503720027369</v>
+        <v>0.334697748276966</v>
       </c>
       <c r="E9">
-        <v>0.09344465267331259</v>
+        <v>0.2352611778457359</v>
       </c>
       <c r="F9">
-        <v>8.050566876448386</v>
+        <v>0.5478769953986813</v>
       </c>
       <c r="G9">
-        <v>0.0006701494937149629</v>
+        <v>0.2454245966905262</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1988656897629255</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.395805888531541</v>
+        <v>0.2245048185083363</v>
       </c>
       <c r="K9">
-        <v>10.61416356418255</v>
+        <v>6.732276728939155</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.77216654949433</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>6.249153121663255</v>
+        <v>0.887560642750401</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2776956557107866</v>
+        <v>0.2223752230870844</v>
       </c>
       <c r="D10">
-        <v>0.07645275169785037</v>
+        <v>0.3917634666401852</v>
       </c>
       <c r="E10">
-        <v>0.1116435552801889</v>
+        <v>0.2754759983326593</v>
       </c>
       <c r="F10">
-        <v>10.22040489835933</v>
+        <v>0.6046767370044677</v>
       </c>
       <c r="G10">
-        <v>0.0006296633780830606</v>
+        <v>0.272276948154925</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.1981276083308643</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4959828028697046</v>
+        <v>0.263288183680416</v>
       </c>
       <c r="K10">
-        <v>13.15838683502244</v>
+        <v>7.985210902635913</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.987863686546433</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>7.969168929573129</v>
+        <v>0.943692098204167</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3082599252828544</v>
+        <v>0.2393158806859361</v>
       </c>
       <c r="D11">
-        <v>0.0868872721723335</v>
+        <v>0.4180026116527245</v>
       </c>
       <c r="E11">
-        <v>0.120955404901121</v>
+        <v>0.2941032722943504</v>
       </c>
       <c r="F11">
-        <v>11.37767760858398</v>
+        <v>0.6332127750327388</v>
       </c>
       <c r="G11">
-        <v>0.0006098059134835854</v>
+        <v>0.2866136083454194</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.198949780331759</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5487273885889579</v>
+        <v>0.2814001130928432</v>
       </c>
       <c r="K11">
-        <v>14.43865130892277</v>
+        <v>8.557480152040284</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.090079433178289</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>8.888391077564847</v>
+        <v>0.9761373479871338</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.320622630182072</v>
+        <v>0.2457708517415114</v>
       </c>
       <c r="D12">
-        <v>0.09125741047860458</v>
+        <v>0.4279844943406772</v>
       </c>
       <c r="E12">
-        <v>0.1246972435411671</v>
+        <v>0.3012108783248024</v>
       </c>
       <c r="F12">
-        <v>11.85189605878116</v>
+        <v>0.6444441311897862</v>
       </c>
       <c r="G12">
-        <v>0.0006019553738509968</v>
+        <v>0.2923786153599508</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.1994416228350104</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.570216181472631</v>
+        <v>0.2883343115033767</v>
       </c>
       <c r="K12">
-        <v>14.94966393685971</v>
+        <v>8.77460285901293</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.129525527162798</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>9.265429161814353</v>
+        <v>0.9895124050053141</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3179192261094528</v>
+        <v>0.2443787951877567</v>
       </c>
       <c r="D13">
-        <v>0.09029430552706685</v>
+        <v>0.4258325933481615</v>
       </c>
       <c r="E13">
-        <v>0.1238802583532816</v>
+        <v>0.2996776331430482</v>
       </c>
       <c r="F13">
-        <v>11.747901440498</v>
+        <v>0.6420057104878936</v>
       </c>
       <c r="G13">
-        <v>0.0006036636762805792</v>
+        <v>0.2911215537092886</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1993274330360464</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5655097374232554</v>
+        <v>0.2868374086015137</v>
       </c>
       <c r="K13">
-        <v>14.83824786849701</v>
+        <v>8.72782161889171</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.120994128190063</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.182727787179601</v>
+        <v>0.9865818318069728</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3092591861611567</v>
+        <v>0.2398461036296737</v>
       </c>
       <c r="D14">
-        <v>0.08723726767739493</v>
+        <v>0.4188228785423291</v>
       </c>
       <c r="E14">
-        <v>0.1212583957445794</v>
+        <v>0.2946869041880618</v>
       </c>
       <c r="F14">
-        <v>11.41587912818039</v>
+        <v>0.634128035079577</v>
       </c>
       <c r="G14">
-        <v>0.000609167663004799</v>
+        <v>0.2870809783711081</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.198986542824855</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5504610633266083</v>
+        <v>0.2819690295775956</v>
       </c>
       <c r="K14">
-        <v>14.48009955766713</v>
+        <v>8.575334097830648</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.093308782045312</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>8.91875621522027</v>
+        <v>0.9772153310422027</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3040675247721651</v>
+        <v>0.237075059579638</v>
       </c>
       <c r="D15">
-        <v>0.08542503149218561</v>
+        <v>0.4145353458229977</v>
       </c>
       <c r="E15">
-        <v>0.1196831807438095</v>
+        <v>0.2916371370625797</v>
       </c>
       <c r="F15">
-        <v>11.21765214599699</v>
+        <v>0.629359290620954</v>
       </c>
       <c r="G15">
-        <v>0.0006124909616195286</v>
+        <v>0.2846507305278578</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1988016789021287</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5414600224889625</v>
+        <v>0.2789971055070595</v>
       </c>
       <c r="K15">
-        <v>14.26447715613392</v>
+        <v>8.481988032937068</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.076452503371513</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.761207049043719</v>
+        <v>0.9716228125526527</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2757915733880765</v>
+        <v>0.2212734013563846</v>
       </c>
       <c r="D16">
-        <v>0.07581985807321701</v>
+        <v>0.3900547620766872</v>
       </c>
       <c r="E16">
-        <v>0.1110607079585435</v>
+        <v>0.2742658658342663</v>
       </c>
       <c r="F16">
-        <v>10.1490400984263</v>
+        <v>0.6028692587028885</v>
       </c>
       <c r="G16">
-        <v>0.0006309230848610597</v>
+        <v>0.2713852943106332</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1980983494689923</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4927155406252979</v>
+        <v>0.2621146482229193</v>
       </c>
       <c r="K16">
-        <v>13.07781454666517</v>
+        <v>7.947865249749043</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.981277589858962</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>7.912525678580096</v>
+        <v>0.9417187387419688</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2595374980866438</v>
+        <v>0.2116449434846572</v>
       </c>
       <c r="D17">
-        <v>0.07049781991452164</v>
+        <v>0.3751121008970983</v>
       </c>
       <c r="E17">
-        <v>0.106072933358071</v>
+        <v>0.2636986013576461</v>
       </c>
       <c r="F17">
-        <v>9.543431372006864</v>
+        <v>0.5873351480574343</v>
       </c>
       <c r="G17">
-        <v>0.0006417933536243691</v>
+        <v>0.2638120054207675</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1979730709931928</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4649171924930329</v>
+        <v>0.2518835610201364</v>
       </c>
       <c r="K17">
-        <v>12.3860209452728</v>
+        <v>7.620846644804658</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.924029597518995</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>7.432043048424248</v>
+        <v>0.9252088549070834</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2505176760076182</v>
+        <v>0.2061292600521227</v>
       </c>
       <c r="D18">
-        <v>0.06760624879387223</v>
+        <v>0.3665434474155376</v>
       </c>
       <c r="E18">
-        <v>0.1032959177339734</v>
+        <v>0.2576515848064744</v>
       </c>
       <c r="F18">
-        <v>9.21018917004983</v>
+        <v>0.5786518353644681</v>
       </c>
       <c r="G18">
-        <v>0.0006479201272832218</v>
+        <v>0.2596537337190412</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1980091037535274</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.44956433502864</v>
+        <v>0.2460425472882974</v>
       </c>
       <c r="K18">
-        <v>11.99899457135098</v>
+        <v>7.432965418617812</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.891475984293521</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>7.167804424825817</v>
+        <v>0.9163571724302386</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2475145855585339</v>
+        <v>0.2042654297063962</v>
       </c>
       <c r="D19">
-        <v>0.06665322462363577</v>
+        <v>0.363646549374252</v>
       </c>
       <c r="E19">
-        <v>0.1023699408521104</v>
+        <v>0.2556093193335016</v>
       </c>
       <c r="F19">
-        <v>9.099695184573648</v>
+        <v>0.5757539148216111</v>
       </c>
       <c r="G19">
-        <v>0.000649975735677353</v>
+        <v>0.2582788619119825</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1980394595192081</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4444646158346046</v>
+        <v>0.2440721377877111</v>
       </c>
       <c r="K19">
-        <v>11.86963270749658</v>
+        <v>7.369385857405121</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.88051440729123</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>7.08021406849889</v>
+        <v>0.9134680404578575</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2612323038560618</v>
+        <v>0.2126675592764826</v>
       </c>
       <c r="D20">
-        <v>0.07104603993811054</v>
+        <v>0.376700046659181</v>
       </c>
       <c r="E20">
-        <v>0.1065940147147266</v>
+        <v>0.2648202554707524</v>
       </c>
       <c r="F20">
-        <v>9.606274320028717</v>
+        <v>0.5889624894751506</v>
       </c>
       <c r="G20">
-        <v>0.000640649869736151</v>
+        <v>0.2645975187397909</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.197975122330817</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4678078729148467</v>
+        <v>0.2529681046020755</v>
       </c>
       <c r="K20">
-        <v>12.45849090173908</v>
+        <v>7.655635876730912</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.930084135820664</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>7.481885384146977</v>
+        <v>0.926899006248604</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3117786334547787</v>
+        <v>0.2411763379609795</v>
       </c>
       <c r="D21">
-        <v>0.08812223379614181</v>
+        <v>0.420880515887859</v>
       </c>
       <c r="E21">
-        <v>0.1220219091692734</v>
+        <v>0.2961512908423316</v>
       </c>
       <c r="F21">
-        <v>11.51229810357589</v>
+        <v>0.6364300413376469</v>
       </c>
       <c r="G21">
-        <v>0.0006075613623277959</v>
+        <v>0.2882584146720291</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.1990816546681202</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.554834736635712</v>
+        <v>0.283396870488076</v>
       </c>
       <c r="K21">
-        <v>14.58449071132907</v>
+        <v>8.620111348263492</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.101419059986824</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>8.995402622998824</v>
+        <v>0.9799361567825429</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3496729580851081</v>
+        <v>0.2600438442587887</v>
       </c>
       <c r="D22">
-        <v>0.101875065530038</v>
+        <v>0.4500241812585273</v>
       </c>
       <c r="E22">
-        <v>0.1334304696305679</v>
+        <v>0.3169449858107143</v>
       </c>
       <c r="F22">
-        <v>12.97965542239007</v>
+        <v>0.6699518278049226</v>
       </c>
       <c r="G22">
-        <v>0.0005838787085210573</v>
+        <v>0.3056969677817847</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.200864265781064</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6210460698453062</v>
+        <v>0.3037287720038506</v>
       </c>
       <c r="K22">
-        <v>16.1355353840207</v>
+        <v>9.252926360643471</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.217831094835191</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>10.16292585697897</v>
+        <v>1.020994665591218</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3288702623187731</v>
+        <v>0.2499505220055198</v>
       </c>
       <c r="D23">
-        <v>0.09422172485417235</v>
+        <v>0.4344431014478687</v>
       </c>
       <c r="E23">
-        <v>0.1271853007860457</v>
+        <v>0.3058159030318279</v>
       </c>
       <c r="F23">
-        <v>12.17017829429051</v>
+        <v>0.6518187941349254</v>
       </c>
       <c r="G23">
-        <v>0.0005967718746158625</v>
+        <v>0.296198106204244</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.1998109956335696</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5846000315239763</v>
+        <v>0.2928336757815799</v>
       </c>
       <c r="K23">
-        <v>15.28844898810146</v>
+        <v>8.914924356671179</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.155224991765806</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>9.518605077902578</v>
+        <v>0.9984623806645629</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2604650869906067</v>
+        <v>0.2122051732554553</v>
       </c>
       <c r="D24">
-        <v>0.07079767519076086</v>
+        <v>0.3759820680094208</v>
       </c>
       <c r="E24">
-        <v>0.1063581562877864</v>
+        <v>0.2643130681129335</v>
       </c>
       <c r="F24">
-        <v>9.577817272996185</v>
+        <v>0.5882260004529272</v>
       </c>
       <c r="G24">
-        <v>0.0006411672126495862</v>
+        <v>0.2642417808785424</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.1979738593925262</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4664990695126932</v>
+        <v>0.252477655429189</v>
       </c>
       <c r="K24">
-        <v>12.42569448114634</v>
+        <v>7.639907278497674</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.927345771166102</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>7.459314903536352</v>
+        <v>0.9261329022452003</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1991207845431262</v>
+        <v>0.1723271489086784</v>
       </c>
       <c r="D25">
-        <v>0.05195401722914283</v>
+        <v>0.3138965756819942</v>
       </c>
       <c r="E25">
-        <v>0.08736398911954169</v>
+        <v>0.2207103064361817</v>
       </c>
       <c r="F25">
-        <v>7.352241175581327</v>
+        <v>0.529118148279899</v>
       </c>
       <c r="G25">
-        <v>0.0006843217546187912</v>
+        <v>0.2372239316759988</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.2000770314891938</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3631636656246826</v>
+        <v>0.21058781844755</v>
       </c>
       <c r="K25">
-        <v>9.749004720739947</v>
+        <v>6.272382687684114</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.695615396939928</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>5.696588143665508</v>
+        <v>0.8724254534801759</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1435022592327329</v>
+        <v>0.04920213766858694</v>
       </c>
       <c r="D2">
-        <v>0.2688287590983407</v>
+        <v>0.2515540573494377</v>
       </c>
       <c r="E2">
-        <v>0.1894029356122289</v>
+        <v>0.1816556173362613</v>
       </c>
       <c r="F2">
-        <v>0.4924952549880999</v>
+        <v>1.014992828093639</v>
       </c>
       <c r="G2">
-        <v>0.222701787366212</v>
+        <v>0.478553821415332</v>
       </c>
       <c r="H2">
-        <v>0.2046718246520101</v>
+        <v>0.6347061767780957</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1808779439291683</v>
+        <v>0.1769492012324463</v>
       </c>
       <c r="K2">
-        <v>5.269137067567272</v>
+        <v>1.846878404809047</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8506103789122506</v>
+        <v>2.186604846098476</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1242199563446746</v>
+        <v>0.04369851331357211</v>
       </c>
       <c r="D3">
-        <v>0.2386023591731998</v>
+        <v>0.2436303406308582</v>
       </c>
       <c r="E3">
-        <v>0.1685908728416692</v>
+        <v>0.1769017472624768</v>
       </c>
       <c r="F3">
-        <v>0.471407128468357</v>
+        <v>1.022889721210234</v>
       </c>
       <c r="G3">
-        <v>0.2157400972964325</v>
+        <v>0.4857757305474379</v>
       </c>
       <c r="H3">
-        <v>0.2094745795755983</v>
+        <v>0.6432981877701778</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1613253540064434</v>
+        <v>0.173096387539708</v>
       </c>
       <c r="K3">
-        <v>4.590169095646331</v>
+        <v>1.626112624306813</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8454456021130596</v>
+        <v>2.219581923208082</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1124801714469754</v>
+        <v>0.04033301125021183</v>
       </c>
       <c r="D4">
-        <v>0.2201736234425908</v>
+        <v>0.238834987617409</v>
       </c>
       <c r="E4">
-        <v>0.155984353015949</v>
+        <v>0.1740649030444494</v>
       </c>
       <c r="F4">
-        <v>0.4601252719597824</v>
+        <v>1.028548644049252</v>
       </c>
       <c r="G4">
-        <v>0.2127426381510205</v>
+        <v>0.4907462072019442</v>
       </c>
       <c r="H4">
-        <v>0.2131919409044087</v>
+        <v>0.6489934932226902</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1495693318463083</v>
+        <v>0.1708381363278164</v>
       </c>
       <c r="K4">
-        <v>4.173352884102826</v>
+        <v>1.490070283032424</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8465795714086966</v>
+        <v>2.241834676972502</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1077177446932609</v>
+        <v>0.03896499393145803</v>
       </c>
       <c r="D5">
-        <v>0.2126931103466774</v>
+        <v>0.2368985575996732</v>
       </c>
       <c r="E5">
-        <v>0.1508866065155416</v>
+        <v>0.1729295520455914</v>
       </c>
       <c r="F5">
-        <v>0.4559224582708055</v>
+        <v>1.031058068167823</v>
       </c>
       <c r="G5">
-        <v>0.2118221279277108</v>
+        <v>0.4929060660251494</v>
       </c>
       <c r="H5">
-        <v>0.2148909495223279</v>
+        <v>0.6514198081027587</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1448361592666245</v>
+        <v>0.1699448747971388</v>
       </c>
       <c r="K5">
-        <v>4.003464484857204</v>
+        <v>1.434512272977543</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8480625068883825</v>
+        <v>2.251405663761616</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1069281572602563</v>
+        <v>0.03873804407757575</v>
       </c>
       <c r="D6">
-        <v>0.211452652691591</v>
+        <v>0.2365780893588152</v>
       </c>
       <c r="E6">
-        <v>0.1500424095946506</v>
+        <v>0.1727422788545496</v>
       </c>
       <c r="F6">
-        <v>0.4552477299172111</v>
+        <v>1.031487028323561</v>
       </c>
       <c r="G6">
-        <v>0.2116868866511936</v>
+        <v>0.4932728091635781</v>
       </c>
       <c r="H6">
-        <v>0.2151839343200166</v>
+        <v>0.6518290600032515</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1440535460052459</v>
+        <v>0.1697981794894048</v>
       </c>
       <c r="K6">
-        <v>3.975251280118755</v>
+        <v>1.42527979616608</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8483686574425775</v>
+        <v>2.253025249437982</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1124158605009455</v>
+        <v>0.04031454771903498</v>
       </c>
       <c r="D7">
-        <v>0.2200726242012792</v>
+        <v>0.2388088003121709</v>
       </c>
       <c r="E7">
-        <v>0.1559154478802149</v>
+        <v>0.1740495074748836</v>
       </c>
       <c r="F7">
-        <v>0.4600670247977092</v>
+        <v>1.028581664080136</v>
       </c>
       <c r="G7">
-        <v>0.2127290310532786</v>
+        <v>0.4907747924788168</v>
       </c>
       <c r="H7">
-        <v>0.2132141203575202</v>
+        <v>0.6490257886320592</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1495052724644452</v>
+        <v>0.1708259802053718</v>
       </c>
       <c r="K7">
-        <v>4.171061905191607</v>
+        <v>1.489321487566542</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.846595516771302</v>
+        <v>2.241961720509465</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.136830922028949</v>
+        <v>0.04730163079591421</v>
       </c>
       <c r="D8">
-        <v>0.2583774852738969</v>
+        <v>0.2488075530524867</v>
       </c>
       <c r="E8">
-        <v>0.1821888531618967</v>
+        <v>0.1799994833695422</v>
       </c>
       <c r="F8">
-        <v>0.484863147928948</v>
+        <v>1.017547300474604</v>
       </c>
       <c r="G8">
-        <v>0.2200238955871825</v>
+        <v>0.4809323594509749</v>
       </c>
       <c r="H8">
-        <v>0.2061627124680925</v>
+        <v>0.6375815034855705</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1740812340464544</v>
+        <v>0.1755984538696538</v>
       </c>
       <c r="K8">
-        <v>5.03498183340804</v>
+        <v>1.770862571761995</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8478978764017029</v>
+        <v>2.197558495901575</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.185665111445303</v>
+        <v>0.06111325427887948</v>
       </c>
       <c r="D9">
-        <v>0.334697748276966</v>
+        <v>0.2689636792527068</v>
       </c>
       <c r="E9">
-        <v>0.2352611778457359</v>
+        <v>0.1923168520597685</v>
       </c>
       <c r="F9">
-        <v>0.5478769953986813</v>
+        <v>1.002354557958782</v>
       </c>
       <c r="G9">
-        <v>0.2454245966905262</v>
+        <v>0.4659075040396061</v>
       </c>
       <c r="H9">
-        <v>0.1988656897629255</v>
+        <v>0.6184754942592932</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2245048185083363</v>
+        <v>0.1858105799349943</v>
       </c>
       <c r="K9">
-        <v>6.732276728939155</v>
+        <v>2.318923225006074</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.887560642750401</v>
+        <v>2.126447932236488</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2223752230870844</v>
+        <v>0.07132998657696987</v>
       </c>
       <c r="D10">
-        <v>0.3917634666401852</v>
+        <v>0.2841010920807889</v>
       </c>
       <c r="E10">
-        <v>0.2754759983326593</v>
+        <v>0.2017614573111004</v>
       </c>
       <c r="F10">
-        <v>0.6046767370044677</v>
+        <v>0.9951463862798988</v>
       </c>
       <c r="G10">
-        <v>0.272276948154925</v>
+        <v>0.4575054740944893</v>
       </c>
       <c r="H10">
-        <v>0.1981276083308643</v>
+        <v>0.6064795031239996</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.263288183680416</v>
+        <v>0.1938363863392709</v>
       </c>
       <c r="K10">
-        <v>7.985210902635913</v>
+        <v>2.718969382682417</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.943692098204167</v>
+        <v>2.08401431141445</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2393158806859361</v>
+        <v>0.07599344777028705</v>
       </c>
       <c r="D11">
-        <v>0.4180026116527245</v>
+        <v>0.2910577752062409</v>
       </c>
       <c r="E11">
-        <v>0.2941032722943504</v>
+        <v>0.20614371848378</v>
       </c>
       <c r="F11">
-        <v>0.6332127750327388</v>
+        <v>0.9927310814958119</v>
       </c>
       <c r="G11">
-        <v>0.2866136083454194</v>
+        <v>0.4542621154464257</v>
       </c>
       <c r="H11">
-        <v>0.198949780331759</v>
+        <v>0.601467022168535</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2814001130928432</v>
+        <v>0.1976017472509426</v>
       </c>
       <c r="K11">
-        <v>8.557480152040284</v>
+        <v>2.900364375999288</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9761373479871338</v>
+        <v>2.066857564206003</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2457708517415114</v>
+        <v>0.0777616744467764</v>
       </c>
       <c r="D12">
-        <v>0.4279844943406772</v>
+        <v>0.2937021147619987</v>
       </c>
       <c r="E12">
-        <v>0.3012108783248024</v>
+        <v>0.2078154790563786</v>
       </c>
       <c r="F12">
-        <v>0.6444441311897862</v>
+        <v>0.9919410871926928</v>
       </c>
       <c r="G12">
-        <v>0.2923786153599508</v>
+        <v>0.4531176860936483</v>
       </c>
       <c r="H12">
-        <v>0.1994416228350104</v>
+        <v>0.5996329913386091</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2883343115033767</v>
+        <v>0.1990440699373579</v>
       </c>
       <c r="K12">
-        <v>8.77460285901293</v>
+        <v>2.968966170496344</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9895124050053141</v>
+        <v>2.060670817690351</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2443787951877567</v>
+        <v>0.07738075400068567</v>
       </c>
       <c r="D13">
-        <v>0.4258325933481615</v>
+        <v>0.2931321669041438</v>
       </c>
       <c r="E13">
-        <v>0.2996776331430482</v>
+        <v>0.2074548896046267</v>
       </c>
       <c r="F13">
-        <v>0.6420057104878936</v>
+        <v>0.9921056769180936</v>
       </c>
       <c r="G13">
-        <v>0.2911215537092886</v>
+        <v>0.4533604256881887</v>
       </c>
       <c r="H13">
-        <v>0.1993274330360464</v>
+        <v>0.6000251298573716</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2868374086015137</v>
+        <v>0.1987327075502634</v>
       </c>
       <c r="K13">
-        <v>8.72782161889171</v>
+        <v>2.954195548131281</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.9865818318069728</v>
+        <v>2.061989427198569</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2398461036296737</v>
+        <v>0.07613887524323104</v>
       </c>
       <c r="D14">
-        <v>0.4188228785423291</v>
+        <v>0.2912751272022547</v>
       </c>
       <c r="E14">
-        <v>0.2946869041880618</v>
+        <v>0.206281009160584</v>
       </c>
       <c r="F14">
-        <v>0.634128035079577</v>
+        <v>0.9926635880002266</v>
       </c>
       <c r="G14">
-        <v>0.2870809783711081</v>
+        <v>0.4541662808229319</v>
       </c>
       <c r="H14">
-        <v>0.198986542824855</v>
+        <v>0.6013148500330772</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2819690295775956</v>
+        <v>0.1977200779966353</v>
       </c>
       <c r="K14">
-        <v>8.575334097830648</v>
+        <v>2.906010084368518</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9772153310422027</v>
+        <v>2.066342352723865</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.237075059579638</v>
+        <v>0.0753784849450625</v>
       </c>
       <c r="D15">
-        <v>0.4145353458229977</v>
+        <v>0.2901389337116314</v>
       </c>
       <c r="E15">
-        <v>0.2916371370625797</v>
+        <v>0.2055635728683427</v>
       </c>
       <c r="F15">
-        <v>0.629359290620954</v>
+        <v>0.9930215676620833</v>
       </c>
       <c r="G15">
-        <v>0.2846507305278578</v>
+        <v>0.4546708142314344</v>
       </c>
       <c r="H15">
-        <v>0.1988016789021287</v>
+        <v>0.6021131916456994</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2789971055070595</v>
+        <v>0.1971019574494477</v>
       </c>
       <c r="K15">
-        <v>8.481988032937068</v>
+        <v>2.876483446524048</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9716228125526527</v>
+        <v>2.069049078530327</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2212734013563846</v>
+        <v>0.07102553677135859</v>
       </c>
       <c r="D16">
-        <v>0.3900547620766872</v>
+        <v>0.2836478636222921</v>
       </c>
       <c r="E16">
-        <v>0.2742658658342663</v>
+        <v>0.2014767894286393</v>
       </c>
       <c r="F16">
-        <v>0.6028692587028885</v>
+        <v>0.9953216490201413</v>
       </c>
       <c r="G16">
-        <v>0.2713852943106332</v>
+        <v>0.4577291271877186</v>
       </c>
       <c r="H16">
-        <v>0.1980983494689923</v>
+        <v>0.6068160398506208</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2621146482229193</v>
+        <v>0.1935926140183994</v>
       </c>
       <c r="K16">
-        <v>7.947865249749043</v>
+        <v>2.70710261813332</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9417187387419688</v>
+        <v>2.085178864793889</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2116449434846572</v>
+        <v>0.06835919592811024</v>
       </c>
       <c r="D17">
-        <v>0.3751121008970983</v>
+        <v>0.2796837719735521</v>
       </c>
       <c r="E17">
-        <v>0.2636986013576461</v>
+        <v>0.1989916334604374</v>
       </c>
       <c r="F17">
-        <v>0.5873351480574343</v>
+        <v>0.9969541998085916</v>
       </c>
       <c r="G17">
-        <v>0.2638120054207675</v>
+        <v>0.4597539199145118</v>
       </c>
       <c r="H17">
-        <v>0.1979730709931928</v>
+        <v>0.6098150604197201</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2518835610201364</v>
+        <v>0.1914690514896336</v>
       </c>
       <c r="K17">
-        <v>7.620846644804658</v>
+        <v>2.603039502393813</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9252088549070834</v>
+        <v>2.095624791895887</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2061292600521227</v>
+        <v>0.0668270760894103</v>
       </c>
       <c r="D18">
-        <v>0.3665434474155376</v>
+        <v>0.2774103856657177</v>
       </c>
       <c r="E18">
-        <v>0.2576515848064744</v>
+        <v>0.1975703224838838</v>
       </c>
       <c r="F18">
-        <v>0.5786518353644681</v>
+        <v>0.99797447271294</v>
       </c>
       <c r="G18">
-        <v>0.2596537337190412</v>
+        <v>0.4609729716004338</v>
       </c>
       <c r="H18">
-        <v>0.1980091037535274</v>
+        <v>0.6115818518244893</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2460425472882974</v>
+        <v>0.1902583997465825</v>
       </c>
       <c r="K18">
-        <v>7.432965418617812</v>
+        <v>2.543130040035578</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9163571724302386</v>
+        <v>2.101834965601341</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2042654297063962</v>
+        <v>0.0663085823388343</v>
       </c>
       <c r="D19">
-        <v>0.363646549374252</v>
+        <v>0.2766418038275162</v>
       </c>
       <c r="E19">
-        <v>0.2556093193335016</v>
+        <v>0.1970904812542855</v>
       </c>
       <c r="F19">
-        <v>0.5757539148216111</v>
+        <v>0.9983338652727198</v>
       </c>
       <c r="G19">
-        <v>0.2582788619119825</v>
+        <v>0.4613950561385991</v>
       </c>
       <c r="H19">
-        <v>0.1980394595192081</v>
+        <v>0.6121872371955561</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2440721377877111</v>
+        <v>0.1898503423740436</v>
       </c>
       <c r="K19">
-        <v>7.369385857405121</v>
+        <v>2.522836382803746</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9134680404578575</v>
+        <v>2.10397226430058</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2126675592764826</v>
+        <v>0.06864287836469884</v>
       </c>
       <c r="D20">
-        <v>0.376700046659181</v>
+        <v>0.2801050687389903</v>
       </c>
       <c r="E20">
-        <v>0.2648202554707524</v>
+        <v>0.1992553461778144</v>
       </c>
       <c r="F20">
-        <v>0.5889624894751506</v>
+        <v>0.9967719974589073</v>
       </c>
       <c r="G20">
-        <v>0.2645975187397909</v>
+        <v>0.4595327385975381</v>
       </c>
       <c r="H20">
-        <v>0.197975122330817</v>
+        <v>0.6094914787245784</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2529681046020755</v>
+        <v>0.1916939940790314</v>
       </c>
       <c r="K20">
-        <v>7.655635876730912</v>
+        <v>2.614122931566612</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.926899006248604</v>
+        <v>2.09449189307341</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2411763379609795</v>
+        <v>0.07650358339031982</v>
       </c>
       <c r="D21">
-        <v>0.420880515887859</v>
+        <v>0.2918203147749239</v>
       </c>
       <c r="E21">
-        <v>0.2961512908423316</v>
+        <v>0.2066254730893178</v>
       </c>
       <c r="F21">
-        <v>0.6364300413376469</v>
+        <v>0.9924963302041334</v>
       </c>
       <c r="G21">
-        <v>0.2882584146720291</v>
+        <v>0.453927304160203</v>
       </c>
       <c r="H21">
-        <v>0.1990816546681202</v>
+        <v>0.6009342873763899</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.283396870488076</v>
+        <v>0.1980170649488997</v>
       </c>
       <c r="K21">
-        <v>8.620111348263492</v>
+        <v>2.920165758013468</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9799361567825429</v>
+        <v>2.065055364106087</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2600438442587887</v>
+        <v>0.08165426983026691</v>
       </c>
       <c r="D22">
-        <v>0.4500241812585273</v>
+        <v>0.2995350894694297</v>
       </c>
       <c r="E22">
-        <v>0.3169449858107143</v>
+        <v>0.2115139076193913</v>
       </c>
       <c r="F22">
-        <v>0.6699518278049226</v>
+        <v>0.9904285652922198</v>
       </c>
       <c r="G22">
-        <v>0.3056969677817847</v>
+        <v>0.4507522937177129</v>
       </c>
       <c r="H22">
-        <v>0.200864265781064</v>
+        <v>0.5957152900856357</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3037287720038506</v>
+        <v>0.202245518404979</v>
       </c>
       <c r="K22">
-        <v>9.252926360643471</v>
+        <v>3.119664464093319</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.020994665591218</v>
+        <v>2.047625312742412</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2499505220055198</v>
+        <v>0.07890403802888102</v>
       </c>
       <c r="D23">
-        <v>0.4344431014478687</v>
+        <v>0.2954122968492072</v>
       </c>
       <c r="E23">
-        <v>0.3058159030318279</v>
+        <v>0.2088983215386619</v>
       </c>
       <c r="F23">
-        <v>0.6518187941349254</v>
+        <v>0.9914655432663864</v>
       </c>
       <c r="G23">
-        <v>0.296198106204244</v>
+        <v>0.4524019859447321</v>
       </c>
       <c r="H23">
-        <v>0.1998109956335696</v>
+        <v>0.5984665277907197</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2928336757815799</v>
+        <v>0.1999799280289949</v>
       </c>
       <c r="K23">
-        <v>8.914924356671179</v>
+        <v>3.013236952555133</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9984623806645629</v>
+        <v>2.056762102451131</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2122051732554553</v>
+        <v>0.06851462306069322</v>
       </c>
       <c r="D24">
-        <v>0.3759820680094208</v>
+        <v>0.2799145829469154</v>
       </c>
       <c r="E24">
-        <v>0.2643130681129335</v>
+        <v>0.1991360984859654</v>
       </c>
       <c r="F24">
-        <v>0.5882260004529272</v>
+        <v>0.9968541166879987</v>
       </c>
       <c r="G24">
-        <v>0.2642417808785424</v>
+        <v>0.4596325634777898</v>
       </c>
       <c r="H24">
-        <v>0.1979738593925262</v>
+        <v>0.6096376372769257</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.252477655429189</v>
+        <v>0.1915922657255749</v>
       </c>
       <c r="K24">
-        <v>7.639907278497674</v>
+        <v>2.609112368956175</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9261329022452003</v>
+        <v>2.095003439196404</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1723271489086784</v>
+        <v>0.05736483345238241</v>
       </c>
       <c r="D25">
-        <v>0.3138965756819942</v>
+        <v>0.2634527787076877</v>
       </c>
       <c r="E25">
-        <v>0.2207103064361817</v>
+        <v>0.188915240978659</v>
       </c>
       <c r="F25">
-        <v>0.529118148279899</v>
+        <v>1.005772009633056</v>
       </c>
       <c r="G25">
-        <v>0.2372239316759988</v>
+        <v>0.4695112406151623</v>
       </c>
       <c r="H25">
-        <v>0.2000770314891938</v>
+        <v>0.6232862519151325</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.21058781844755</v>
+        <v>0.1829562912968896</v>
       </c>
       <c r="K25">
-        <v>6.272382687684114</v>
+        <v>2.171106648573982</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8724254534801759</v>
+        <v>2.143967962108647</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04920213766858694</v>
+        <v>0.1435022592328892</v>
       </c>
       <c r="D2">
-        <v>0.2515540573494377</v>
+        <v>0.2688287590984828</v>
       </c>
       <c r="E2">
-        <v>0.1816556173362613</v>
+        <v>0.189402935612236</v>
       </c>
       <c r="F2">
-        <v>1.014992828093639</v>
+        <v>0.4924952549880999</v>
       </c>
       <c r="G2">
-        <v>0.478553821415332</v>
+        <v>0.2227017873662192</v>
       </c>
       <c r="H2">
-        <v>0.6347061767780957</v>
+        <v>0.2046718246519958</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1769492012324463</v>
+        <v>0.180877943929147</v>
       </c>
       <c r="K2">
-        <v>1.846878404809047</v>
+        <v>5.269137067567385</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.186604846098476</v>
+        <v>0.8506103789122506</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04369851331357211</v>
+        <v>0.1242199563444615</v>
       </c>
       <c r="D3">
-        <v>0.2436303406308582</v>
+        <v>0.2386023591731004</v>
       </c>
       <c r="E3">
-        <v>0.1769017472624768</v>
+        <v>0.1685908728416763</v>
       </c>
       <c r="F3">
-        <v>1.022889721210234</v>
+        <v>0.4714071284683499</v>
       </c>
       <c r="G3">
-        <v>0.4857757305474379</v>
+        <v>0.2157400972964894</v>
       </c>
       <c r="H3">
-        <v>0.6432981877701778</v>
+        <v>0.2094745795755841</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.173096387539708</v>
+        <v>0.1613253540064647</v>
       </c>
       <c r="K3">
-        <v>1.626112624306813</v>
+        <v>4.590169095646274</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.219581923208082</v>
+        <v>0.8454456021130738</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04033301125021183</v>
+        <v>0.1124801714465633</v>
       </c>
       <c r="D4">
-        <v>0.238834987617409</v>
+        <v>0.2201736234425766</v>
       </c>
       <c r="E4">
-        <v>0.1740649030444494</v>
+        <v>0.1559843530159597</v>
       </c>
       <c r="F4">
-        <v>1.028548644049252</v>
+        <v>0.4601252719597753</v>
       </c>
       <c r="G4">
-        <v>0.4907462072019442</v>
+        <v>0.2127426381510276</v>
       </c>
       <c r="H4">
-        <v>0.6489934932226902</v>
+        <v>0.2131919409044016</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1708381363278164</v>
+        <v>0.1495693318463154</v>
       </c>
       <c r="K4">
-        <v>1.490070283032424</v>
+        <v>4.173352884103167</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.241834676972502</v>
+        <v>0.846579571408725</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03896499393145803</v>
+        <v>0.1077177446932609</v>
       </c>
       <c r="D5">
-        <v>0.2368985575996732</v>
+        <v>0.2126931103468337</v>
       </c>
       <c r="E5">
-        <v>0.1729295520455914</v>
+        <v>0.1508866065155701</v>
       </c>
       <c r="F5">
-        <v>1.031058068167823</v>
+        <v>0.4559224582707984</v>
       </c>
       <c r="G5">
-        <v>0.4929060660251494</v>
+        <v>0.2118221279276611</v>
       </c>
       <c r="H5">
-        <v>0.6514198081027587</v>
+        <v>0.2148909495224274</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1699448747971388</v>
+        <v>0.1448361592666245</v>
       </c>
       <c r="K5">
-        <v>1.434512272977543</v>
+        <v>4.003464484857261</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.251405663761616</v>
+        <v>0.8480625068884251</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03873804407757575</v>
+        <v>0.1069281572604694</v>
       </c>
       <c r="D6">
-        <v>0.2365780893588152</v>
+        <v>0.2114526526915483</v>
       </c>
       <c r="E6">
-        <v>0.1727422788545496</v>
+        <v>0.1500424095946435</v>
       </c>
       <c r="F6">
-        <v>1.031487028323561</v>
+        <v>0.4552477299172111</v>
       </c>
       <c r="G6">
-        <v>0.4932728091635781</v>
+        <v>0.2116868866512505</v>
       </c>
       <c r="H6">
-        <v>0.6518290600032515</v>
+        <v>0.2151839343200095</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1697981794894048</v>
+        <v>0.1440535460052175</v>
       </c>
       <c r="K6">
-        <v>1.42527979616608</v>
+        <v>3.975251280118755</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.253025249437982</v>
+        <v>0.8483686574425775</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04031454771903498</v>
+        <v>0.1124158605010166</v>
       </c>
       <c r="D7">
-        <v>0.2388088003121709</v>
+        <v>0.2200726242012792</v>
       </c>
       <c r="E7">
-        <v>0.1740495074748836</v>
+        <v>0.1559154478802363</v>
       </c>
       <c r="F7">
-        <v>1.028581664080136</v>
+        <v>0.460067024797695</v>
       </c>
       <c r="G7">
-        <v>0.4907747924788168</v>
+        <v>0.2127290310533425</v>
       </c>
       <c r="H7">
-        <v>0.6490257886320592</v>
+        <v>0.2132141203575202</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1708259802053718</v>
+        <v>0.1495052724644736</v>
       </c>
       <c r="K7">
-        <v>1.489321487566542</v>
+        <v>4.171061905191664</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.241961720509465</v>
+        <v>0.8465955167713588</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04730163079591421</v>
+        <v>0.1368309220286363</v>
       </c>
       <c r="D8">
-        <v>0.2488075530524867</v>
+        <v>0.2583774852739253</v>
       </c>
       <c r="E8">
-        <v>0.1799994833695422</v>
+        <v>0.1821888531618825</v>
       </c>
       <c r="F8">
-        <v>1.017547300474604</v>
+        <v>0.484863147928948</v>
       </c>
       <c r="G8">
-        <v>0.4809323594509749</v>
+        <v>0.2200238955872251</v>
       </c>
       <c r="H8">
-        <v>0.6375815034855705</v>
+        <v>0.2061627124679717</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1755984538696538</v>
+        <v>0.1740812340465041</v>
       </c>
       <c r="K8">
-        <v>1.770862571761995</v>
+        <v>5.03498183340804</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.197558495901575</v>
+        <v>0.8478978764016745</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06111325427887948</v>
+        <v>0.1856651114448056</v>
       </c>
       <c r="D9">
-        <v>0.2689636792527068</v>
+        <v>0.3346977482769518</v>
       </c>
       <c r="E9">
-        <v>0.1923168520597685</v>
+        <v>0.2352611778457572</v>
       </c>
       <c r="F9">
-        <v>1.002354557958782</v>
+        <v>0.5478769953987026</v>
       </c>
       <c r="G9">
-        <v>0.4659075040396061</v>
+        <v>0.2454245966905191</v>
       </c>
       <c r="H9">
-        <v>0.6184754942592932</v>
+        <v>0.1988656897629397</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1858105799349943</v>
+        <v>0.2245048185082226</v>
       </c>
       <c r="K9">
-        <v>2.318923225006074</v>
+        <v>6.732276728939155</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.126447932236488</v>
+        <v>0.8875606427504152</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07132998657696987</v>
+        <v>0.2223752230871128</v>
       </c>
       <c r="D10">
-        <v>0.2841010920807889</v>
+        <v>0.3917634666402989</v>
       </c>
       <c r="E10">
-        <v>0.2017614573111004</v>
+        <v>0.2754759983326522</v>
       </c>
       <c r="F10">
-        <v>0.9951463862798988</v>
+        <v>0.6046767370044677</v>
       </c>
       <c r="G10">
-        <v>0.4575054740944893</v>
+        <v>0.272276948154925</v>
       </c>
       <c r="H10">
-        <v>0.6064795031239996</v>
+        <v>0.1981276083308643</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1938363863392709</v>
+        <v>0.2632881836804017</v>
       </c>
       <c r="K10">
-        <v>2.718969382682417</v>
+        <v>7.985210902635913</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.08401431141445</v>
+        <v>0.9436920982041102</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07599344777028705</v>
+        <v>0.2393158806862914</v>
       </c>
       <c r="D11">
-        <v>0.2910577752062409</v>
+        <v>0.4180026116526676</v>
       </c>
       <c r="E11">
-        <v>0.20614371848378</v>
+        <v>0.2941032722943149</v>
       </c>
       <c r="F11">
-        <v>0.9927310814958119</v>
+        <v>0.6332127750327388</v>
       </c>
       <c r="G11">
-        <v>0.4542621154464257</v>
+        <v>0.2866136083454904</v>
       </c>
       <c r="H11">
-        <v>0.601467022168535</v>
+        <v>0.198949780331759</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1976017472509426</v>
+        <v>0.2814001130929</v>
       </c>
       <c r="K11">
-        <v>2.900364375999288</v>
+        <v>8.557480152040057</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.066857564206003</v>
+        <v>0.976137347987077</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0777616744467764</v>
+        <v>0.2457708517417245</v>
       </c>
       <c r="D12">
-        <v>0.2937021147619987</v>
+        <v>0.4279844943406772</v>
       </c>
       <c r="E12">
-        <v>0.2078154790563786</v>
+        <v>0.3012108783247882</v>
       </c>
       <c r="F12">
-        <v>0.9919410871926928</v>
+        <v>0.6444441311897862</v>
       </c>
       <c r="G12">
-        <v>0.4531176860936483</v>
+        <v>0.2923786153599508</v>
       </c>
       <c r="H12">
-        <v>0.5996329913386091</v>
+        <v>0.1994416228351383</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1990440699373579</v>
+        <v>0.2883343115032915</v>
       </c>
       <c r="K12">
-        <v>2.968966170496344</v>
+        <v>8.774602859013044</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.060670817690351</v>
+        <v>0.9895124050053141</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07738075400068567</v>
+        <v>0.2443787951881546</v>
       </c>
       <c r="D13">
-        <v>0.2931321669041438</v>
+        <v>0.4258325933480762</v>
       </c>
       <c r="E13">
-        <v>0.2074548896046267</v>
+        <v>0.2996776331430695</v>
       </c>
       <c r="F13">
-        <v>0.9921056769180936</v>
+        <v>0.6420057104879078</v>
       </c>
       <c r="G13">
-        <v>0.4533604256881887</v>
+        <v>0.291121553709246</v>
       </c>
       <c r="H13">
-        <v>0.6000251298573716</v>
+        <v>0.1993274330360464</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1987327075502634</v>
+        <v>0.2868374086014285</v>
       </c>
       <c r="K13">
-        <v>2.954195548131281</v>
+        <v>8.727821618891596</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.061989427198569</v>
+        <v>0.9865818318070012</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07613887524323104</v>
+        <v>0.239846103629219</v>
       </c>
       <c r="D14">
-        <v>0.2912751272022547</v>
+        <v>0.4188228785420449</v>
       </c>
       <c r="E14">
-        <v>0.206281009160584</v>
+        <v>0.2946869041880547</v>
       </c>
       <c r="F14">
-        <v>0.9926635880002266</v>
+        <v>0.634128035079577</v>
       </c>
       <c r="G14">
-        <v>0.4541662808229319</v>
+        <v>0.2870809783710513</v>
       </c>
       <c r="H14">
-        <v>0.6013148500330772</v>
+        <v>0.1989865428247413</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1977200779966353</v>
+        <v>0.281969029577553</v>
       </c>
       <c r="K14">
-        <v>2.906010084368518</v>
+        <v>8.575334097830648</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.066342352723865</v>
+        <v>0.9772153310422595</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0753784849450625</v>
+        <v>0.2370750595793965</v>
       </c>
       <c r="D15">
-        <v>0.2901389337116314</v>
+        <v>0.4145353458231398</v>
       </c>
       <c r="E15">
-        <v>0.2055635728683427</v>
+        <v>0.2916371370625797</v>
       </c>
       <c r="F15">
-        <v>0.9930215676620833</v>
+        <v>0.629359290620954</v>
       </c>
       <c r="G15">
-        <v>0.4546708142314344</v>
+        <v>0.284650730527801</v>
       </c>
       <c r="H15">
-        <v>0.6021131916456994</v>
+        <v>0.198801678902143</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1971019574494477</v>
+        <v>0.2789971055070168</v>
       </c>
       <c r="K15">
-        <v>2.876483446524048</v>
+        <v>8.481988032937011</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.069049078530327</v>
+        <v>0.9716228125525959</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07102553677135859</v>
+        <v>0.2212734013563562</v>
       </c>
       <c r="D16">
-        <v>0.2836478636222921</v>
+        <v>0.3900547620766588</v>
       </c>
       <c r="E16">
-        <v>0.2014767894286393</v>
+        <v>0.2742658658342663</v>
       </c>
       <c r="F16">
-        <v>0.9953216490201413</v>
+        <v>0.6028692587028743</v>
       </c>
       <c r="G16">
-        <v>0.4577291271877186</v>
+        <v>0.2713852943106261</v>
       </c>
       <c r="H16">
-        <v>0.6068160398506208</v>
+        <v>0.1980983494688786</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1935926140183994</v>
+        <v>0.2621146482228909</v>
       </c>
       <c r="K16">
-        <v>2.70710261813332</v>
+        <v>7.947865249748872</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.085178864793889</v>
+        <v>0.9417187387419688</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06835919592811024</v>
+        <v>0.2116449434848278</v>
       </c>
       <c r="D17">
-        <v>0.2796837719735521</v>
+        <v>0.3751121008969136</v>
       </c>
       <c r="E17">
-        <v>0.1989916334604374</v>
+        <v>0.2636986013576532</v>
       </c>
       <c r="F17">
-        <v>0.9969541998085916</v>
+        <v>0.5873351480574343</v>
       </c>
       <c r="G17">
-        <v>0.4597539199145118</v>
+        <v>0.2638120054207391</v>
       </c>
       <c r="H17">
-        <v>0.6098150604197201</v>
+        <v>0.1979730709930791</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1914690514896336</v>
+        <v>0.2518835610201791</v>
       </c>
       <c r="K17">
-        <v>2.603039502393813</v>
+        <v>7.620846644804715</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.095624791895887</v>
+        <v>0.9252088549071118</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0668270760894103</v>
+        <v>0.2061292600520517</v>
       </c>
       <c r="D18">
-        <v>0.2774103856657177</v>
+        <v>0.3665434474155802</v>
       </c>
       <c r="E18">
-        <v>0.1975703224838838</v>
+        <v>0.2576515848064886</v>
       </c>
       <c r="F18">
-        <v>0.99797447271294</v>
+        <v>0.5786518353644823</v>
       </c>
       <c r="G18">
-        <v>0.4609729716004338</v>
+        <v>0.2596537337189773</v>
       </c>
       <c r="H18">
-        <v>0.6115818518244893</v>
+        <v>0.1980091037535274</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1902583997465825</v>
+        <v>0.2460425472882832</v>
       </c>
       <c r="K18">
-        <v>2.543130040035578</v>
+        <v>7.432965418617698</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.101834965601341</v>
+        <v>0.9163571724302244</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0663085823388343</v>
+        <v>0.2042654297063962</v>
       </c>
       <c r="D19">
-        <v>0.2766418038275162</v>
+        <v>0.3636465493741809</v>
       </c>
       <c r="E19">
-        <v>0.1970904812542855</v>
+        <v>0.2556093193334732</v>
       </c>
       <c r="F19">
-        <v>0.9983338652727198</v>
+        <v>0.5757539148216253</v>
       </c>
       <c r="G19">
-        <v>0.4613950561385991</v>
+        <v>0.2582788619119896</v>
       </c>
       <c r="H19">
-        <v>0.6121872371955561</v>
+        <v>0.198039459519336</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1898503423740436</v>
+        <v>0.2440721377877253</v>
       </c>
       <c r="K19">
-        <v>2.522836382803746</v>
+        <v>7.36938585740495</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.10397226430058</v>
+        <v>0.913468040457758</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06864287836469884</v>
+        <v>0.2126675592765679</v>
       </c>
       <c r="D20">
-        <v>0.2801050687389903</v>
+        <v>0.3767000466592236</v>
       </c>
       <c r="E20">
-        <v>0.1992553461778144</v>
+        <v>0.2648202554707169</v>
       </c>
       <c r="F20">
-        <v>0.9967719974589073</v>
+        <v>0.5889624894751364</v>
       </c>
       <c r="G20">
-        <v>0.4595327385975381</v>
+        <v>0.2645975187396701</v>
       </c>
       <c r="H20">
-        <v>0.6094914787245784</v>
+        <v>0.197975122330817</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1916939940790314</v>
+        <v>0.2529681046020897</v>
       </c>
       <c r="K20">
-        <v>2.614122931566612</v>
+        <v>7.655635876730798</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.09449189307341</v>
+        <v>0.926899006248604</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07650358339031982</v>
+        <v>0.2411763379610221</v>
       </c>
       <c r="D21">
-        <v>0.2918203147749239</v>
+        <v>0.420880515887859</v>
       </c>
       <c r="E21">
-        <v>0.2066254730893178</v>
+        <v>0.29615129084236</v>
       </c>
       <c r="F21">
-        <v>0.9924963302041334</v>
+        <v>0.6364300413376469</v>
       </c>
       <c r="G21">
-        <v>0.453927304160203</v>
+        <v>0.2882584146720149</v>
       </c>
       <c r="H21">
-        <v>0.6009342873763899</v>
+        <v>0.1990816546681202</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1980170649488997</v>
+        <v>0.2833968704880903</v>
       </c>
       <c r="K21">
-        <v>2.920165758013468</v>
+        <v>8.620111348263549</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.065055364106087</v>
+        <v>0.9799361567825429</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08165426983026691</v>
+        <v>0.2600438442588029</v>
       </c>
       <c r="D22">
-        <v>0.2995350894694297</v>
+        <v>0.4500241812585273</v>
       </c>
       <c r="E22">
-        <v>0.2115139076193913</v>
+        <v>0.316944985810693</v>
       </c>
       <c r="F22">
-        <v>0.9904285652922198</v>
+        <v>0.6699518278049226</v>
       </c>
       <c r="G22">
-        <v>0.4507522937177129</v>
+        <v>0.3056969677817705</v>
       </c>
       <c r="H22">
-        <v>0.5957152900856357</v>
+        <v>0.200864265781064</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.202245518404979</v>
+        <v>0.3037287720039075</v>
       </c>
       <c r="K22">
-        <v>3.119664464093319</v>
+        <v>9.252926360643414</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.047625312742412</v>
+        <v>1.020994665591218</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07890403802888102</v>
+        <v>0.2499505220057756</v>
       </c>
       <c r="D23">
-        <v>0.2954122968492072</v>
+        <v>0.4344431014482097</v>
       </c>
       <c r="E23">
-        <v>0.2088983215386619</v>
+        <v>0.3058159030318279</v>
       </c>
       <c r="F23">
-        <v>0.9914655432663864</v>
+        <v>0.6518187941349254</v>
       </c>
       <c r="G23">
-        <v>0.4524019859447321</v>
+        <v>0.2961981062042724</v>
       </c>
       <c r="H23">
-        <v>0.5984665277907197</v>
+        <v>0.1998109956335696</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1999799280289949</v>
+        <v>0.2928336757816652</v>
       </c>
       <c r="K23">
-        <v>3.013236952555133</v>
+        <v>8.914924356671065</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.056762102451131</v>
+        <v>0.9984623806645061</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06851462306069322</v>
+        <v>0.21220517325591</v>
       </c>
       <c r="D24">
-        <v>0.2799145829469154</v>
+        <v>0.3759820680093213</v>
       </c>
       <c r="E24">
-        <v>0.1991360984859654</v>
+        <v>0.2643130681129335</v>
       </c>
       <c r="F24">
-        <v>0.9968541166879987</v>
+        <v>0.588226000452913</v>
       </c>
       <c r="G24">
-        <v>0.4596325634777898</v>
+        <v>0.2642417808785638</v>
       </c>
       <c r="H24">
-        <v>0.6096376372769257</v>
+        <v>0.1979738593924054</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1915922657255749</v>
+        <v>0.2524776554290895</v>
       </c>
       <c r="K24">
-        <v>2.609112368956175</v>
+        <v>7.639907278497674</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.095003439196404</v>
+        <v>0.9261329022451861</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05736483345238241</v>
+        <v>0.1723271489086642</v>
       </c>
       <c r="D25">
-        <v>0.2634527787076877</v>
+        <v>0.3138965756818948</v>
       </c>
       <c r="E25">
-        <v>0.188915240978659</v>
+        <v>0.2207103064361817</v>
       </c>
       <c r="F25">
-        <v>1.005772009633056</v>
+        <v>0.5291181482798919</v>
       </c>
       <c r="G25">
-        <v>0.4695112406151623</v>
+        <v>0.2372239316759988</v>
       </c>
       <c r="H25">
-        <v>0.6232862519151325</v>
+        <v>0.2000770314891938</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1829562912968896</v>
+        <v>0.2105878184474932</v>
       </c>
       <c r="K25">
-        <v>2.171106648573982</v>
+        <v>6.272382687684171</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.143967962108647</v>
+        <v>0.8724254534802327</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1435022592328892</v>
+        <v>0.05845646110692826</v>
       </c>
       <c r="D2">
-        <v>0.2688287590984828</v>
+        <v>0.2540958908908664</v>
       </c>
       <c r="E2">
-        <v>0.189402935612236</v>
+        <v>0.2112840609299695</v>
       </c>
       <c r="F2">
-        <v>0.4924952549880999</v>
+        <v>0.7013040036871701</v>
       </c>
       <c r="G2">
-        <v>0.2227017873662192</v>
+        <v>0.3689582434971541</v>
       </c>
       <c r="H2">
-        <v>0.2046718246519958</v>
+        <v>0.000582708606284843</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.006881489485299319</v>
       </c>
       <c r="J2">
-        <v>0.180877943929147</v>
+        <v>0.3052742209294195</v>
       </c>
       <c r="K2">
-        <v>5.269137067567385</v>
+        <v>0.3721096123923999</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2309613981532692</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2.987475032982189</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8506103789122506</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1.032763392834354</v>
+      </c>
+      <c r="Q2">
+        <v>1.369995698047148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1242199563444615</v>
+        <v>0.05103147285816334</v>
       </c>
       <c r="D3">
-        <v>0.2386023591731004</v>
+        <v>0.2271074425808877</v>
       </c>
       <c r="E3">
-        <v>0.1685908728416763</v>
+        <v>0.1892931709010739</v>
       </c>
       <c r="F3">
-        <v>0.4714071284683499</v>
+        <v>0.659117535308269</v>
       </c>
       <c r="G3">
-        <v>0.2157400972964894</v>
+        <v>0.3472217815883027</v>
       </c>
       <c r="H3">
-        <v>0.2094745795755841</v>
+        <v>0.0001134754940241844</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.004934007695026388</v>
       </c>
       <c r="J3">
-        <v>0.1613253540064647</v>
+        <v>0.298955136450985</v>
       </c>
       <c r="K3">
-        <v>4.590169095646274</v>
+        <v>0.351622300276123</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2071975892582856</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2.604718443197498</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8454456021130738</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1.000745106859767</v>
+      </c>
+      <c r="Q3">
+        <v>1.310410468789669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1124801714465633</v>
+        <v>0.04633167010150174</v>
       </c>
       <c r="D4">
-        <v>0.2201736234425766</v>
+        <v>0.2105928602361047</v>
       </c>
       <c r="E4">
-        <v>0.1559843530159597</v>
+        <v>0.1757903222470176</v>
       </c>
       <c r="F4">
-        <v>0.4601252719597753</v>
+        <v>0.6336367108784771</v>
       </c>
       <c r="G4">
-        <v>0.2127426381510276</v>
+        <v>0.3341925254718277</v>
       </c>
       <c r="H4">
-        <v>0.2131919409044016</v>
+        <v>4.20864077521621E-06</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.003892864617017544</v>
       </c>
       <c r="J4">
-        <v>0.1495693318463154</v>
+        <v>0.2953031479406434</v>
       </c>
       <c r="K4">
-        <v>4.173352884103167</v>
+        <v>0.3391703591562631</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1925724540296443</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2.368776967564372</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.846579571408725</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.9817666464850703</v>
+      </c>
+      <c r="Q4">
+        <v>1.274966499127174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1077177446932609</v>
+        <v>0.0440442162640764</v>
       </c>
       <c r="D5">
-        <v>0.2126931103468337</v>
+        <v>0.2039693708252628</v>
       </c>
       <c r="E5">
-        <v>0.1508866065155701</v>
+        <v>0.1703057385949727</v>
       </c>
       <c r="F5">
-        <v>0.4559224582707984</v>
+        <v>0.6229395607978745</v>
       </c>
       <c r="G5">
-        <v>0.2118221279276611</v>
+        <v>0.3286089035388855</v>
       </c>
       <c r="H5">
-        <v>0.2148909495224274</v>
+        <v>2.406018456690973E-06</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.003557661661321099</v>
       </c>
       <c r="J5">
-        <v>0.1448361592666245</v>
+        <v>0.2936927905648048</v>
       </c>
       <c r="K5">
-        <v>4.003464484857261</v>
+        <v>0.3336485597577514</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1865794834426993</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2.271539572192438</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8480625068884251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.9745456690545211</v>
+      </c>
+      <c r="Q5">
+        <v>1.259683702236657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1069281572604694</v>
+        <v>0.04325129969302566</v>
       </c>
       <c r="D6">
-        <v>0.2114526526915483</v>
+        <v>0.2029851124251962</v>
       </c>
       <c r="E6">
-        <v>0.1500424095946435</v>
+        <v>0.1694187337974959</v>
       </c>
       <c r="F6">
-        <v>0.4552477299172111</v>
+        <v>0.6206638617082447</v>
       </c>
       <c r="G6">
-        <v>0.2116868866512505</v>
+        <v>0.3272598256395511</v>
       </c>
       <c r="H6">
-        <v>0.2151839343200095</v>
+        <v>4.726763892293206E-06</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.003575897206676615</v>
       </c>
       <c r="J6">
-        <v>0.1440535460052175</v>
+        <v>0.2932119869414294</v>
       </c>
       <c r="K6">
-        <v>3.975251280118755</v>
+        <v>0.3321503580561789</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1855557036386202</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.254334870437106</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8483686574425775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.9737827955160725</v>
+      </c>
+      <c r="Q6">
+        <v>1.255804213831198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1124158605010166</v>
+        <v>0.04517104262314575</v>
       </c>
       <c r="D7">
-        <v>0.2200726242012792</v>
+        <v>0.2108177604032164</v>
       </c>
       <c r="E7">
-        <v>0.1559154478802363</v>
+        <v>0.1757817193713684</v>
       </c>
       <c r="F7">
-        <v>0.460067024797695</v>
+        <v>0.63211079924438</v>
       </c>
       <c r="G7">
-        <v>0.2127290310533425</v>
+        <v>0.332951150736811</v>
       </c>
       <c r="H7">
-        <v>0.2132141203575202</v>
+        <v>3.801877028974943E-06</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.004069163947777454</v>
       </c>
       <c r="J7">
-        <v>0.1495052724644736</v>
+        <v>0.2946894564671538</v>
       </c>
       <c r="K7">
-        <v>4.171061905191664</v>
+        <v>0.3375005958995132</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1924152488835915</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.364604506083708</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8465955167713588</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.9828426532056653</v>
+      </c>
+      <c r="Q7">
+        <v>1.271047890081405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1368309220286363</v>
+        <v>0.05441110164318985</v>
       </c>
       <c r="D8">
-        <v>0.2583774852739253</v>
+        <v>0.2451962614378971</v>
       </c>
       <c r="E8">
-        <v>0.1821888531618825</v>
+        <v>0.2037883662997473</v>
       </c>
       <c r="F8">
-        <v>0.484863147928948</v>
+        <v>0.6848338644857037</v>
       </c>
       <c r="G8">
-        <v>0.2200238955872251</v>
+        <v>0.3598465148522507</v>
       </c>
       <c r="H8">
-        <v>0.2061627124679717</v>
+        <v>0.0003797585501739142</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.006388009558868646</v>
       </c>
       <c r="J8">
-        <v>0.1740812340465041</v>
+        <v>0.3022639880929034</v>
       </c>
       <c r="K8">
-        <v>5.03498183340804</v>
+        <v>0.3628979513123198</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2226725325299412</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.851860858793202</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8478978764016745</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1.023172894116499</v>
+      </c>
+      <c r="Q8">
+        <v>1.344282424602895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1856651114448056</v>
+        <v>0.07344013480147282</v>
       </c>
       <c r="D9">
-        <v>0.3346977482769518</v>
+        <v>0.3125716590919723</v>
       </c>
       <c r="E9">
-        <v>0.2352611778457572</v>
+        <v>0.258656778766067</v>
       </c>
       <c r="F9">
-        <v>0.5478769953987026</v>
+        <v>0.7943655358949826</v>
       </c>
       <c r="G9">
-        <v>0.2454245966905191</v>
+        <v>0.4174486899366343</v>
       </c>
       <c r="H9">
-        <v>0.1988656897629397</v>
+        <v>0.002649539670899426</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01201539758686998</v>
       </c>
       <c r="J9">
-        <v>0.2245048185082226</v>
+        <v>0.3200939707857486</v>
       </c>
       <c r="K9">
-        <v>6.732276728939155</v>
+        <v>0.4167080135608003</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2819537156180019</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>3.805427206676313</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8875606427504152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1.105783183761048</v>
+      </c>
+      <c r="Q9">
+        <v>1.504371294662405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2223752230871128</v>
+        <v>0.08658203737029169</v>
       </c>
       <c r="D10">
-        <v>0.3917634666402989</v>
+        <v>0.354539001668158</v>
       </c>
       <c r="E10">
-        <v>0.2754759983326522</v>
+        <v>0.2883207421436254</v>
       </c>
       <c r="F10">
-        <v>0.6046767370044677</v>
+        <v>0.8649870025151642</v>
       </c>
       <c r="G10">
-        <v>0.272276948154925</v>
+        <v>0.4556970432757623</v>
       </c>
       <c r="H10">
-        <v>0.1981276083308643</v>
+        <v>0.005380648137782273</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01712450497255613</v>
       </c>
       <c r="J10">
-        <v>0.2632881836804017</v>
+        <v>0.3314966128148882</v>
       </c>
       <c r="K10">
-        <v>7.985210902635913</v>
+        <v>0.4521870814412665</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3107353784922964</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4.486288070053945</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9436920982041102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1.177222159385749</v>
+      </c>
+      <c r="Q10">
+        <v>1.60976166700928</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2393158806862914</v>
+        <v>0.0948257313293368</v>
       </c>
       <c r="D11">
-        <v>0.4180026116526676</v>
+        <v>0.3062316860704897</v>
       </c>
       <c r="E11">
-        <v>0.2941032722943149</v>
+        <v>0.2156435944445079</v>
       </c>
       <c r="F11">
-        <v>0.6332127750327388</v>
+        <v>0.7944555425533508</v>
       </c>
       <c r="G11">
-        <v>0.2866136083454904</v>
+        <v>0.4242600144050073</v>
       </c>
       <c r="H11">
-        <v>0.198949780331759</v>
+        <v>0.02372981007419028</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01911632517911954</v>
       </c>
       <c r="J11">
-        <v>0.2814001130929</v>
+        <v>0.3125480544603789</v>
       </c>
       <c r="K11">
-        <v>8.557480152040057</v>
+        <v>0.430333345876555</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2106202138438888</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4.664455313480914</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.976137347987077</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1.269338183003967</v>
+      </c>
+      <c r="Q11">
+        <v>1.503595197111707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2457708517417245</v>
+        <v>0.1012765625186773</v>
       </c>
       <c r="D12">
-        <v>0.4279844943406772</v>
+        <v>0.2595366157032402</v>
       </c>
       <c r="E12">
-        <v>0.3012108783247882</v>
+        <v>0.158252032139611</v>
       </c>
       <c r="F12">
-        <v>0.6444441311897862</v>
+        <v>0.7240855636968604</v>
       </c>
       <c r="G12">
-        <v>0.2923786153599508</v>
+        <v>0.3919584129443621</v>
       </c>
       <c r="H12">
-        <v>0.1994416228351383</v>
+        <v>0.06196279356463208</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01940073424302557</v>
       </c>
       <c r="J12">
-        <v>0.2883343115032915</v>
+        <v>0.2951418948027822</v>
       </c>
       <c r="K12">
-        <v>8.774602859013044</v>
+        <v>0.4069942059539571</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1401690605022452</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.673504546196</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9895124050053141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1.332951074418119</v>
+      </c>
+      <c r="Q12">
+        <v>1.398718488327376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2443787951881546</v>
+        <v>0.1048646668680391</v>
       </c>
       <c r="D13">
-        <v>0.4258325933480762</v>
+        <v>0.2121300144346776</v>
       </c>
       <c r="E13">
-        <v>0.2996776331430695</v>
+        <v>0.1096148935851957</v>
       </c>
       <c r="F13">
-        <v>0.6420057104879078</v>
+        <v>0.6477801626129178</v>
       </c>
       <c r="G13">
-        <v>0.291121553709246</v>
+        <v>0.3552938611380227</v>
       </c>
       <c r="H13">
-        <v>0.1993274330360464</v>
+        <v>0.1170432189274209</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.0186232538844493</v>
       </c>
       <c r="J13">
-        <v>0.2868374086014285</v>
+        <v>0.2769607654948771</v>
       </c>
       <c r="K13">
-        <v>8.727821618891596</v>
+        <v>0.3786587739072829</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.0884654427603202</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.548368294941156</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.9865818318070012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1.379149543079095</v>
+      </c>
+      <c r="Q13">
+        <v>1.282888925153003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.239846103629219</v>
+        <v>0.1057032004215444</v>
       </c>
       <c r="D14">
-        <v>0.4188228785420449</v>
+        <v>0.1794615997674214</v>
       </c>
       <c r="E14">
-        <v>0.2946869041880547</v>
+        <v>0.08118494981128777</v>
       </c>
       <c r="F14">
-        <v>0.634128035079577</v>
+        <v>0.5921182735644663</v>
       </c>
       <c r="G14">
-        <v>0.2870809783710513</v>
+        <v>0.327682597543216</v>
       </c>
       <c r="H14">
-        <v>0.1989865428247413</v>
+        <v>0.1658553713122046</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01768512543556966</v>
       </c>
       <c r="J14">
-        <v>0.281969029577553</v>
+        <v>0.2638653034409231</v>
       </c>
       <c r="K14">
-        <v>8.575334097830648</v>
+        <v>0.3563368635566206</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06363341740360795</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.399576046674156</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9772153310422595</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1.403950105869399</v>
+      </c>
+      <c r="Q14">
+        <v>1.196873403342636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2370750595793965</v>
+        <v>0.1047098787880998</v>
       </c>
       <c r="D15">
-        <v>0.4145353458231398</v>
+        <v>0.1710681880369975</v>
       </c>
       <c r="E15">
-        <v>0.2916371370625797</v>
+        <v>0.07486058741494972</v>
       </c>
       <c r="F15">
-        <v>0.629359290620954</v>
+        <v>0.5767369193777085</v>
       </c>
       <c r="G15">
-        <v>0.284650730527801</v>
+        <v>0.3196394162721603</v>
       </c>
       <c r="H15">
-        <v>0.198801678902143</v>
+        <v>0.1781430632478589</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01732025906541246</v>
       </c>
       <c r="J15">
-        <v>0.2789971055070168</v>
+        <v>0.2603311495528189</v>
       </c>
       <c r="K15">
-        <v>8.481988032937011</v>
+        <v>0.349322080791417</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.05901904707492811</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.33406466331229</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9716228125525959</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1.40632113749983</v>
+      </c>
+      <c r="Q15">
+        <v>1.172388748538992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2212734013563562</v>
+        <v>0.09747638914959111</v>
       </c>
       <c r="D16">
-        <v>0.3900547620766588</v>
+        <v>0.1640923224336888</v>
       </c>
       <c r="E16">
-        <v>0.2742658658342663</v>
+        <v>0.07343509094351575</v>
       </c>
       <c r="F16">
-        <v>0.6028692587028743</v>
+        <v>0.5623722995150686</v>
       </c>
       <c r="G16">
-        <v>0.2713852943106261</v>
+        <v>0.3103632222870516</v>
       </c>
       <c r="H16">
-        <v>0.1980983494688786</v>
+        <v>0.1643751230856338</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01532540792316173</v>
       </c>
       <c r="J16">
-        <v>0.2621146482228909</v>
+        <v>0.2588462638969347</v>
       </c>
       <c r="K16">
-        <v>7.947865249748872</v>
+        <v>0.3392357767698542</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.05869879851814552</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.067640689181644</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9417187387419688</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1.363838324171198</v>
+      </c>
+      <c r="Q16">
+        <v>1.149436326915847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2116449434848278</v>
+        <v>0.09144866067251201</v>
       </c>
       <c r="D17">
-        <v>0.3751121008969136</v>
+        <v>0.1755864351997332</v>
       </c>
       <c r="E17">
-        <v>0.2636986013576532</v>
+        <v>0.08628469212436585</v>
       </c>
       <c r="F17">
-        <v>0.5873351480574343</v>
+        <v>0.5804961224663003</v>
       </c>
       <c r="G17">
-        <v>0.2638120054207391</v>
+        <v>0.3177739745889099</v>
       </c>
       <c r="H17">
-        <v>0.1979730709930791</v>
+        <v>0.1260898847987448</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01432707998650873</v>
       </c>
       <c r="J17">
-        <v>0.2518835610201791</v>
+        <v>0.2646335496998944</v>
       </c>
       <c r="K17">
-        <v>7.620846644804715</v>
+        <v>0.3432382915404304</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.06959275015033484</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>3.94218136030031</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9252088549071118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1.318555308248733</v>
+      </c>
+      <c r="Q17">
+        <v>1.177160046393482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2061292600520517</v>
+        <v>0.08699042991281658</v>
       </c>
       <c r="D18">
-        <v>0.3665434474155802</v>
+        <v>0.2059862907585028</v>
       </c>
       <c r="E18">
-        <v>0.2576515848064886</v>
+        <v>0.1180908957618918</v>
       </c>
       <c r="F18">
-        <v>0.5786518353644823</v>
+        <v>0.6308286984576483</v>
       </c>
       <c r="G18">
-        <v>0.2596537337189773</v>
+        <v>0.3415677446794092</v>
       </c>
       <c r="H18">
-        <v>0.1980091037535274</v>
+        <v>0.07324214439821475</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01381575752518849</v>
       </c>
       <c r="J18">
-        <v>0.2460425472882832</v>
+        <v>0.2778521929298563</v>
       </c>
       <c r="K18">
-        <v>7.432965418617698</v>
+        <v>0.3611385545840946</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1013346276440075</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>3.925322418529277</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9163571724302244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1.265476538423769</v>
+      </c>
+      <c r="Q18">
+        <v>1.255231481981752</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2042654297063962</v>
+        <v>0.0819448345754239</v>
       </c>
       <c r="D19">
-        <v>0.3636465493741809</v>
+        <v>0.2529701017708845</v>
       </c>
       <c r="E19">
-        <v>0.2556093193334732</v>
+        <v>0.1709754678105995</v>
       </c>
       <c r="F19">
-        <v>0.5757539148216253</v>
+        <v>0.7036517488197376</v>
       </c>
       <c r="G19">
-        <v>0.2582788619119896</v>
+        <v>0.3757575170461678</v>
       </c>
       <c r="H19">
-        <v>0.198039459519336</v>
+        <v>0.02852258239154537</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01418206596556448</v>
       </c>
       <c r="J19">
-        <v>0.2440721377877253</v>
+        <v>0.2954321834717888</v>
       </c>
       <c r="K19">
-        <v>7.36938585740495</v>
+        <v>0.3866313846060692</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1625212546922157</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>3.991122720250871</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.913468040457758</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1.214037774333008</v>
+      </c>
+      <c r="Q19">
+        <v>1.364524703608396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2126675592765679</v>
+        <v>0.07958916030089824</v>
       </c>
       <c r="D20">
-        <v>0.3767000466592236</v>
+        <v>0.3441499331040632</v>
       </c>
       <c r="E20">
-        <v>0.2648202554707169</v>
+        <v>0.280280290757247</v>
       </c>
       <c r="F20">
-        <v>0.5889624894751364</v>
+        <v>0.8414379815687312</v>
       </c>
       <c r="G20">
-        <v>0.2645975187396701</v>
+        <v>0.4416182419918897</v>
       </c>
       <c r="H20">
-        <v>0.197975122330817</v>
+        <v>0.004544548779170654</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01628085961133507</v>
       </c>
       <c r="J20">
-        <v>0.2529681046020897</v>
+        <v>0.3264577745997741</v>
       </c>
       <c r="K20">
-        <v>7.655635876730798</v>
+        <v>0.4376274602043324</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3023234816919143</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>4.297975189351121</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.926899006248604</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1.162386763877251</v>
+      </c>
+      <c r="Q20">
+        <v>1.569252346534086</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2411763379610221</v>
+        <v>0.08945659020997709</v>
       </c>
       <c r="D21">
-        <v>0.420880515887859</v>
+        <v>0.3888841962883021</v>
       </c>
       <c r="E21">
-        <v>0.29615129084236</v>
+        <v>0.3198089791907321</v>
       </c>
       <c r="F21">
-        <v>0.6364300413376469</v>
+        <v>0.9158478861924948</v>
       </c>
       <c r="G21">
-        <v>0.2882584146720149</v>
+        <v>0.4810566071993776</v>
       </c>
       <c r="H21">
-        <v>0.1990816546681202</v>
+        <v>0.007081890789917056</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.0205887112117713</v>
       </c>
       <c r="J21">
-        <v>0.2833968704880903</v>
+        <v>0.3402942903210686</v>
       </c>
       <c r="K21">
-        <v>8.620111348263549</v>
+        <v>0.4726337701498835</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3472788209324875</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>4.843274280219418</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9799361567825429</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1.208184030533261</v>
+      </c>
+      <c r="Q21">
+        <v>1.6821577581658</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2600438442588029</v>
+        <v>0.09749564579968251</v>
       </c>
       <c r="D22">
-        <v>0.4500241812585273</v>
+        <v>0.4136811954221002</v>
       </c>
       <c r="E22">
-        <v>0.316944985810693</v>
+        <v>0.3401038706205455</v>
       </c>
       <c r="F22">
-        <v>0.6699518278049226</v>
+        <v>0.9609135149450623</v>
       </c>
       <c r="G22">
-        <v>0.3056969677817705</v>
+        <v>0.5060451890970938</v>
       </c>
       <c r="H22">
-        <v>0.200864265781064</v>
+        <v>0.008976355128828079</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.02335976768850934</v>
       </c>
       <c r="J22">
-        <v>0.3037287720039075</v>
+        <v>0.3490093879356806</v>
       </c>
       <c r="K22">
-        <v>9.252926360643414</v>
+        <v>0.4957309929538738</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3692976231164238</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.195697011164327</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.020994665591218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1.240452540138946</v>
+      </c>
+      <c r="Q22">
+        <v>1.753585435227677</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2499505220057756</v>
+        <v>0.09458464556330171</v>
       </c>
       <c r="D23">
-        <v>0.4344431014482097</v>
+        <v>0.4000546584560709</v>
       </c>
       <c r="E23">
-        <v>0.3058159030318279</v>
+        <v>0.3291857905580429</v>
       </c>
       <c r="F23">
-        <v>0.6518187941349254</v>
+        <v>0.9384454133065816</v>
       </c>
       <c r="G23">
-        <v>0.2961981062042724</v>
+        <v>0.4940519316768217</v>
       </c>
       <c r="H23">
-        <v>0.1998109956335696</v>
+        <v>0.007950680229358131</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.02163924174865173</v>
       </c>
       <c r="J23">
-        <v>0.2928336757816652</v>
+        <v>0.3450265943711628</v>
       </c>
       <c r="K23">
-        <v>8.914924356671065</v>
+        <v>0.4852852917435229</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3576326170043416</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.011169034646741</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9984623806645061</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>1.221632854159736</v>
+      </c>
+      <c r="Q23">
+        <v>1.719712564202808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.21220517325591</v>
+        <v>0.08114296501690887</v>
       </c>
       <c r="D24">
-        <v>0.3759820680093213</v>
+        <v>0.3492752281181595</v>
       </c>
       <c r="E24">
-        <v>0.2643130681129335</v>
+        <v>0.2880815887394874</v>
       </c>
       <c r="F24">
-        <v>0.588226000452913</v>
+        <v>0.8521094955474524</v>
       </c>
       <c r="G24">
-        <v>0.2642417808785638</v>
+        <v>0.4474786765429712</v>
       </c>
       <c r="H24">
-        <v>0.1979738593924054</v>
+        <v>0.004552647599630033</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01592241175822817</v>
       </c>
       <c r="J24">
-        <v>0.2524776554290895</v>
+        <v>0.3294628267264272</v>
       </c>
       <c r="K24">
-        <v>7.639907278497674</v>
+        <v>0.4432307229685577</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3133936083641231</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>4.305727945566673</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9261329022451861</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1.154443663024097</v>
+      </c>
+      <c r="Q24">
+        <v>1.587967360050158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1723271489086642</v>
+        <v>0.06633886659571431</v>
       </c>
       <c r="D25">
-        <v>0.3138965756818948</v>
+        <v>0.2948537607705788</v>
       </c>
       <c r="E25">
-        <v>0.2207103064361817</v>
+        <v>0.243917291580189</v>
       </c>
       <c r="F25">
-        <v>0.5291181482798919</v>
+        <v>0.7617840987226145</v>
       </c>
       <c r="G25">
-        <v>0.2372239316759988</v>
+        <v>0.3994111138108138</v>
       </c>
       <c r="H25">
-        <v>0.2000770314891938</v>
+        <v>0.001848482648856953</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01064152843669497</v>
       </c>
       <c r="J25">
-        <v>0.2105878184474932</v>
+        <v>0.3139807005545947</v>
       </c>
       <c r="K25">
-        <v>6.272382687684171</v>
+        <v>0.3991058797953357</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2657863896101418</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>3.542883552756791</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8724254534802327</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1.085026545111063</v>
+      </c>
+      <c r="Q25">
+        <v>1.453163974951906</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05845646110692826</v>
+        <v>0.02910935362707079</v>
       </c>
       <c r="D2">
-        <v>0.2540958908908664</v>
+        <v>0.2629144134479446</v>
       </c>
       <c r="E2">
-        <v>0.2112840609299695</v>
+        <v>0.2129917959100425</v>
       </c>
       <c r="F2">
-        <v>0.7013040036871701</v>
+        <v>0.6636536204214849</v>
       </c>
       <c r="G2">
-        <v>0.3689582434971541</v>
+        <v>0.3188953391808838</v>
       </c>
       <c r="H2">
-        <v>0.000582708606284843</v>
+        <v>0.0004989420761731811</v>
       </c>
       <c r="I2">
-        <v>0.006881489485299319</v>
+        <v>0.006641584468314754</v>
       </c>
       <c r="J2">
-        <v>0.3052742209294195</v>
+        <v>0.3272738300288083</v>
       </c>
       <c r="K2">
-        <v>0.3721096123923999</v>
+        <v>0.3270767217472148</v>
       </c>
       <c r="L2">
-        <v>0.2309613981532692</v>
+        <v>0.1831720343442562</v>
       </c>
       <c r="M2">
-        <v>2.987475032982189</v>
+        <v>0.08018758739416754</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2286346264350883</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2.905372693588532</v>
       </c>
       <c r="P2">
-        <v>1.032763392834354</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.369995698047148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1.068535076230859</v>
+      </c>
+      <c r="S2">
+        <v>1.270615755308839</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05103147285816334</v>
+        <v>0.02629861035286751</v>
       </c>
       <c r="D3">
-        <v>0.2271074425808877</v>
+        <v>0.2345553616124363</v>
       </c>
       <c r="E3">
-        <v>0.1892931709010739</v>
+        <v>0.1908636070416279</v>
       </c>
       <c r="F3">
-        <v>0.659117535308269</v>
+        <v>0.627352789117964</v>
       </c>
       <c r="G3">
-        <v>0.3472217815883027</v>
+        <v>0.3024650488748861</v>
       </c>
       <c r="H3">
-        <v>0.0001134754940241844</v>
+        <v>9.054231856642225E-05</v>
       </c>
       <c r="I3">
-        <v>0.004934007695026388</v>
+        <v>0.004973121348819998</v>
       </c>
       <c r="J3">
-        <v>0.298955136450985</v>
+        <v>0.3211318481783536</v>
       </c>
       <c r="K3">
-        <v>0.351622300276123</v>
+        <v>0.3129167833214588</v>
       </c>
       <c r="L3">
-        <v>0.2071975892582856</v>
+        <v>0.1844897298782655</v>
       </c>
       <c r="M3">
-        <v>2.604718443197498</v>
+        <v>0.06914575570018044</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.205457925859136</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.538265706212883</v>
       </c>
       <c r="P3">
-        <v>1.000745106859767</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.310410468789669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1.028864275667715</v>
+      </c>
+      <c r="S3">
+        <v>1.225762566152738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04633167010150174</v>
+        <v>0.02445645074830338</v>
       </c>
       <c r="D4">
-        <v>0.2105928602361047</v>
+        <v>0.2172217072592133</v>
       </c>
       <c r="E4">
-        <v>0.1757903222470176</v>
+        <v>0.1772806047033981</v>
       </c>
       <c r="F4">
-        <v>0.6336367108784771</v>
+        <v>0.6053693090200269</v>
       </c>
       <c r="G4">
-        <v>0.3341925254718277</v>
+        <v>0.2926769893681254</v>
       </c>
       <c r="H4">
-        <v>4.20864077521621E-06</v>
+        <v>1.779544187119342E-06</v>
       </c>
       <c r="I4">
-        <v>0.003892864617017544</v>
+        <v>0.004070278424758822</v>
       </c>
       <c r="J4">
-        <v>0.2953031479406434</v>
+        <v>0.3174248663072348</v>
       </c>
       <c r="K4">
-        <v>0.3391703591562631</v>
+        <v>0.3042315053667224</v>
       </c>
       <c r="L4">
-        <v>0.1925724540296443</v>
+        <v>0.1852305729671571</v>
       </c>
       <c r="M4">
-        <v>2.368776967564372</v>
+        <v>0.06294450547903097</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1911876202219531</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.311714687696053</v>
       </c>
       <c r="P4">
-        <v>0.9817666464850703</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.274966499127174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1.005255516046816</v>
+      </c>
+      <c r="S4">
+        <v>1.199030363705162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0440442162640764</v>
+        <v>0.02343260001652681</v>
       </c>
       <c r="D5">
-        <v>0.2039693708252628</v>
+        <v>0.2102710751771184</v>
       </c>
       <c r="E5">
-        <v>0.1703057385949727</v>
+        <v>0.1717648109396741</v>
       </c>
       <c r="F5">
-        <v>0.6229395607978745</v>
+        <v>0.5960865586372677</v>
       </c>
       <c r="G5">
-        <v>0.3286089035388855</v>
+        <v>0.2884351203844133</v>
       </c>
       <c r="H5">
-        <v>2.406018456690973E-06</v>
+        <v>4.383294053722508E-06</v>
       </c>
       <c r="I5">
-        <v>0.003557661661321099</v>
+        <v>0.003796561504465501</v>
       </c>
       <c r="J5">
-        <v>0.2936927905648048</v>
+        <v>0.3157541322535096</v>
       </c>
       <c r="K5">
-        <v>0.3336485597577514</v>
+        <v>0.3002569143213343</v>
       </c>
       <c r="L5">
-        <v>0.1865794834426993</v>
+        <v>0.1853079243084679</v>
       </c>
       <c r="M5">
-        <v>2.271539572192438</v>
+        <v>0.06043774743509367</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.185338819987571</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.218273416395817</v>
       </c>
       <c r="P5">
-        <v>0.9745456690545211</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.259683702236657</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.996173148156231</v>
+      </c>
+      <c r="S5">
+        <v>1.187281875345519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04325129969302566</v>
+        <v>0.02296504402318789</v>
       </c>
       <c r="D6">
-        <v>0.2029851124251962</v>
+        <v>0.2092339955638209</v>
       </c>
       <c r="E6">
-        <v>0.1694187337974959</v>
+        <v>0.170873030537031</v>
       </c>
       <c r="F6">
-        <v>0.6206638617082447</v>
+        <v>0.5940653239461753</v>
       </c>
       <c r="G6">
-        <v>0.3272598256395511</v>
+        <v>0.2873395910312695</v>
       </c>
       <c r="H6">
-        <v>4.726763892293206E-06</v>
+        <v>7.214690676438096E-06</v>
       </c>
       <c r="I6">
-        <v>0.003575897206676615</v>
+        <v>0.003841810225572395</v>
       </c>
       <c r="J6">
-        <v>0.2932119869414294</v>
+        <v>0.3152632010450489</v>
       </c>
       <c r="K6">
-        <v>0.3321503580561789</v>
+        <v>0.2990643997024875</v>
       </c>
       <c r="L6">
-        <v>0.1855557036386202</v>
+        <v>0.185067160680461</v>
       </c>
       <c r="M6">
-        <v>2.254334870437106</v>
+        <v>0.05987779771704105</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.184339852389634</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.201722938579849</v>
       </c>
       <c r="P6">
-        <v>0.9737827955160725</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.255804213831198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.9951120659866035</v>
+      </c>
+      <c r="S6">
+        <v>1.184064137516373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04517104262314575</v>
+        <v>0.02371313966921917</v>
       </c>
       <c r="D7">
-        <v>0.2108177604032164</v>
+        <v>0.2176389767231655</v>
       </c>
       <c r="E7">
-        <v>0.1757817193713684</v>
+        <v>0.1773127654487325</v>
       </c>
       <c r="F7">
-        <v>0.63211079924438</v>
+        <v>0.6031190944688163</v>
       </c>
       <c r="G7">
-        <v>0.332951150736811</v>
+        <v>0.2942594804947731</v>
       </c>
       <c r="H7">
-        <v>3.801877028974943E-06</v>
+        <v>1.458684693700363E-06</v>
       </c>
       <c r="I7">
-        <v>0.004069163947777454</v>
+        <v>0.00428749267624795</v>
       </c>
       <c r="J7">
-        <v>0.2946894564671538</v>
+        <v>0.3128887245519323</v>
       </c>
       <c r="K7">
-        <v>0.3375005958995132</v>
+        <v>0.3022649602851359</v>
       </c>
       <c r="L7">
-        <v>0.1924152488835915</v>
+        <v>0.1843447930159599</v>
       </c>
       <c r="M7">
-        <v>2.364604506083708</v>
+        <v>0.06234245181355291</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1909898544807263</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.30597107473028</v>
       </c>
       <c r="P7">
-        <v>0.9828426532056653</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.271047890081405</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1.007069205157876</v>
+      </c>
+      <c r="S7">
+        <v>1.193266916930625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.05441110164318985</v>
+        <v>0.02736637184550261</v>
       </c>
       <c r="D8">
-        <v>0.2451962614378971</v>
+        <v>0.2541929007206676</v>
       </c>
       <c r="E8">
-        <v>0.2037883662997473</v>
+        <v>0.2055861785775122</v>
       </c>
       <c r="F8">
-        <v>0.6848338644857037</v>
+        <v>0.6466563132606566</v>
       </c>
       <c r="G8">
-        <v>0.3598465148522507</v>
+        <v>0.3208583243561733</v>
       </c>
       <c r="H8">
-        <v>0.0003797585501739142</v>
+        <v>0.0003176473851485007</v>
       </c>
       <c r="I8">
-        <v>0.006388009558868646</v>
+        <v>0.006290581148503449</v>
       </c>
       <c r="J8">
-        <v>0.3022639880929034</v>
+        <v>0.3115520916475063</v>
       </c>
       <c r="K8">
-        <v>0.3628979513123198</v>
+        <v>0.3187592453677155</v>
       </c>
       <c r="L8">
-        <v>0.2226725325299412</v>
+        <v>0.1821634076537251</v>
       </c>
       <c r="M8">
-        <v>2.851860858793202</v>
+        <v>0.07512753217535817</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2204047029494305</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2.769615674437802</v>
       </c>
       <c r="P8">
-        <v>1.023172894116499</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.344282424602895</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1.058847827915116</v>
+      </c>
+      <c r="S8">
+        <v>1.243366694371559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.07344013480147282</v>
+        <v>0.03474698988996039</v>
       </c>
       <c r="D9">
-        <v>0.3125716590919723</v>
+        <v>0.3252991711616033</v>
       </c>
       <c r="E9">
-        <v>0.258656778766067</v>
+        <v>0.2608552533780255</v>
       </c>
       <c r="F9">
-        <v>0.7943655358949826</v>
+        <v>0.7399888635632692</v>
       </c>
       <c r="G9">
-        <v>0.4174486899366343</v>
+        <v>0.3675987495960555</v>
       </c>
       <c r="H9">
-        <v>0.002649539670899426</v>
+        <v>0.0023220547306112</v>
       </c>
       <c r="I9">
-        <v>0.01201539758686998</v>
+        <v>0.0109500947856267</v>
       </c>
       <c r="J9">
-        <v>0.3200939707857486</v>
+        <v>0.3244081546132804</v>
       </c>
       <c r="K9">
-        <v>0.4167080135608003</v>
+        <v>0.3555078194260375</v>
       </c>
       <c r="L9">
-        <v>0.2819537156180019</v>
+        <v>0.1792212540920524</v>
       </c>
       <c r="M9">
-        <v>3.805427206676313</v>
+        <v>0.1061997560661752</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2781360450902923</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>3.681043012062332</v>
       </c>
       <c r="P9">
-        <v>1.105783183761048</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.504371294662405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1.161704510257678</v>
+      </c>
+      <c r="S9">
+        <v>1.362506060671421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.08658203737029169</v>
+        <v>0.04017787381103943</v>
       </c>
       <c r="D10">
-        <v>0.354539001668158</v>
+        <v>0.3710026975993088</v>
       </c>
       <c r="E10">
-        <v>0.2883207421436254</v>
+        <v>0.2909842804154721</v>
       </c>
       <c r="F10">
-        <v>0.8649870025151642</v>
+        <v>0.7943445491282688</v>
       </c>
       <c r="G10">
-        <v>0.4556970432757623</v>
+        <v>0.4149491633929046</v>
       </c>
       <c r="H10">
-        <v>0.005380648137782273</v>
+        <v>0.004746516267132517</v>
       </c>
       <c r="I10">
-        <v>0.01712450497255613</v>
+        <v>0.01513295140941029</v>
       </c>
       <c r="J10">
-        <v>0.3314966128148882</v>
+        <v>0.3104135637654437</v>
       </c>
       <c r="K10">
-        <v>0.4521870814412665</v>
+        <v>0.3760861469458021</v>
       </c>
       <c r="L10">
-        <v>0.3107353784922964</v>
+        <v>0.1743933662405617</v>
       </c>
       <c r="M10">
-        <v>4.486288070053945</v>
+        <v>0.1292267425981883</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3056045501431157</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>4.320502597990526</v>
       </c>
       <c r="P10">
-        <v>1.177222159385749</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.60976166700928</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1.253040481993224</v>
+      </c>
+      <c r="S10">
+        <v>1.426042262737695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0948257313293368</v>
+        <v>0.04666118728677304</v>
       </c>
       <c r="D11">
-        <v>0.3062316860704897</v>
+        <v>0.3236924104945018</v>
       </c>
       <c r="E11">
-        <v>0.2156435944445079</v>
+        <v>0.2180797087358997</v>
       </c>
       <c r="F11">
-        <v>0.7944555425533508</v>
+        <v>0.7176205661493427</v>
       </c>
       <c r="G11">
-        <v>0.4242600144050073</v>
+        <v>0.4205370054671391</v>
       </c>
       <c r="H11">
-        <v>0.02372981007419028</v>
+        <v>0.02303588013704427</v>
       </c>
       <c r="I11">
-        <v>0.01911632517911954</v>
+        <v>0.01684034550700453</v>
       </c>
       <c r="J11">
-        <v>0.3125480544603789</v>
+        <v>0.2549245671280644</v>
       </c>
       <c r="K11">
-        <v>0.430333345876555</v>
+        <v>0.3507696630244794</v>
       </c>
       <c r="L11">
-        <v>0.2106202138438888</v>
+        <v>0.1601898677135445</v>
       </c>
       <c r="M11">
-        <v>4.664455313480914</v>
+        <v>0.1257541539141229</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2057068690810766</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>4.471407230673663</v>
       </c>
       <c r="P11">
-        <v>1.269338183003967</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.503595197111707</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1.36295433214643</v>
+      </c>
+      <c r="S11">
+        <v>1.301615157992302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1012765625186773</v>
+        <v>0.05250486973178425</v>
       </c>
       <c r="D12">
-        <v>0.2595366157032402</v>
+        <v>0.2761272354460687</v>
       </c>
       <c r="E12">
-        <v>0.158252032139611</v>
+        <v>0.160157799525269</v>
       </c>
       <c r="F12">
-        <v>0.7240855636968604</v>
+        <v>0.6487722689077131</v>
       </c>
       <c r="G12">
-        <v>0.3919584129443621</v>
+        <v>0.4059092500675234</v>
       </c>
       <c r="H12">
-        <v>0.06196279356463208</v>
+        <v>0.06128329716482028</v>
       </c>
       <c r="I12">
-        <v>0.01940073424302557</v>
+        <v>0.01703081856959177</v>
       </c>
       <c r="J12">
-        <v>0.2951418948027822</v>
+        <v>0.2276976905800936</v>
       </c>
       <c r="K12">
-        <v>0.4069942059539571</v>
+        <v>0.3292089595088115</v>
       </c>
       <c r="L12">
-        <v>0.1401690605022452</v>
+        <v>0.1509164506858376</v>
       </c>
       <c r="M12">
-        <v>4.673504546196</v>
+        <v>0.1192796706800046</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1359205142389328</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>4.472652955501076</v>
       </c>
       <c r="P12">
-        <v>1.332951074418119</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.398718488327376</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.434614508345092</v>
+      </c>
+      <c r="S12">
+        <v>1.198466832003731</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1048646668680391</v>
+        <v>0.05675678878965584</v>
       </c>
       <c r="D13">
-        <v>0.2121300144346776</v>
+        <v>0.2261933855819365</v>
       </c>
       <c r="E13">
-        <v>0.1096148935851957</v>
+        <v>0.1107564525856439</v>
       </c>
       <c r="F13">
-        <v>0.6477801626129178</v>
+        <v>0.5811974192774159</v>
       </c>
       <c r="G13">
-        <v>0.3552938611380227</v>
+        <v>0.3665119362957512</v>
       </c>
       <c r="H13">
-        <v>0.1170432189274209</v>
+        <v>0.1164406424324227</v>
       </c>
       <c r="I13">
-        <v>0.0186232538844493</v>
+        <v>0.01640743322853755</v>
       </c>
       <c r="J13">
-        <v>0.2769607654948771</v>
+        <v>0.2202484766747617</v>
       </c>
       <c r="K13">
-        <v>0.3786587739072829</v>
+        <v>0.3078719770253144</v>
       </c>
       <c r="L13">
-        <v>0.0884654427603202</v>
+        <v>0.1440115638379496</v>
       </c>
       <c r="M13">
-        <v>4.548368294941156</v>
+        <v>0.1097723354908027</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.08518860644546677</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>4.35901941915364</v>
       </c>
       <c r="P13">
-        <v>1.379149543079095</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.282888925153003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.478751788631655</v>
+      </c>
+      <c r="S13">
+        <v>1.103559863143033</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1057032004215444</v>
+        <v>0.05876053885996413</v>
       </c>
       <c r="D14">
-        <v>0.1794615997674214</v>
+        <v>0.1912058249925082</v>
       </c>
       <c r="E14">
-        <v>0.08118494981128777</v>
+        <v>0.08175749941195321</v>
       </c>
       <c r="F14">
-        <v>0.5921182735644663</v>
+        <v>0.5343361920665401</v>
       </c>
       <c r="G14">
-        <v>0.327682597543216</v>
+        <v>0.3292227029455574</v>
       </c>
       <c r="H14">
-        <v>0.1658553713122046</v>
+        <v>0.1653278841158539</v>
       </c>
       <c r="I14">
-        <v>0.01768512543556966</v>
+        <v>0.01569768678414007</v>
       </c>
       <c r="J14">
-        <v>0.2638653034409231</v>
+        <v>0.2222105575777178</v>
       </c>
       <c r="K14">
-        <v>0.3563368635566206</v>
+        <v>0.2925920590193165</v>
       </c>
       <c r="L14">
-        <v>0.06363341740360795</v>
+        <v>0.1399683453119849</v>
       </c>
       <c r="M14">
-        <v>4.399576046674156</v>
+        <v>0.1016990923705166</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06109057061151546</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>4.226631945803604</v>
       </c>
       <c r="P14">
-        <v>1.403950105869399</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.196873403342636</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.497383962291337</v>
+      </c>
+      <c r="S14">
+        <v>1.03964115834853</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1047098787880998</v>
+        <v>0.058458158928687</v>
       </c>
       <c r="D15">
-        <v>0.1710681880369975</v>
+        <v>0.1820132280652302</v>
       </c>
       <c r="E15">
-        <v>0.07486058741494972</v>
+        <v>0.07528405213520628</v>
       </c>
       <c r="F15">
-        <v>0.5767369193777085</v>
+        <v>0.5222900679936657</v>
       </c>
       <c r="G15">
-        <v>0.3196394162721603</v>
+        <v>0.315723269915253</v>
       </c>
       <c r="H15">
-        <v>0.1781430632478589</v>
+        <v>0.1776480807443761</v>
       </c>
       <c r="I15">
-        <v>0.01732025906541246</v>
+        <v>0.01546228546815875</v>
       </c>
       <c r="J15">
-        <v>0.2603311495528189</v>
+        <v>0.2257278331262782</v>
       </c>
       <c r="K15">
-        <v>0.349322080791417</v>
+        <v>0.2882915776936734</v>
       </c>
       <c r="L15">
-        <v>0.05901904707492811</v>
+        <v>0.1392017097172733</v>
       </c>
       <c r="M15">
-        <v>4.33406466331229</v>
+        <v>0.09890436619569698</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05668644614832807</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>4.168782942971745</v>
       </c>
       <c r="P15">
-        <v>1.40632113749983</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.172388748538992</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.496217683549006</v>
+      </c>
+      <c r="S15">
+        <v>1.023860310165588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.09747638914959111</v>
+        <v>0.05393460052160748</v>
       </c>
       <c r="D16">
-        <v>0.1640923224336888</v>
+        <v>0.172897792300958</v>
       </c>
       <c r="E16">
-        <v>0.07343509094351575</v>
+        <v>0.07372880805955617</v>
       </c>
       <c r="F16">
-        <v>0.5623722995150686</v>
+        <v>0.5182219430749342</v>
       </c>
       <c r="G16">
-        <v>0.3103632222870516</v>
+        <v>0.2812319679089512</v>
       </c>
       <c r="H16">
-        <v>0.1643751230856338</v>
+        <v>0.1640181190196017</v>
       </c>
       <c r="I16">
-        <v>0.01532540792316173</v>
+        <v>0.01395095525746637</v>
       </c>
       <c r="J16">
-        <v>0.2588462638969347</v>
+        <v>0.2546912323987414</v>
       </c>
       <c r="K16">
-        <v>0.3392357767698542</v>
+        <v>0.2864618298681769</v>
       </c>
       <c r="L16">
-        <v>0.05869879851814552</v>
+        <v>0.1426919552558381</v>
       </c>
       <c r="M16">
-        <v>4.067640689181644</v>
+        <v>0.09250045707666388</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05672790339390055</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>3.933543557887219</v>
       </c>
       <c r="P16">
-        <v>1.363838324171198</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.149436326915847</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.436493345231568</v>
+      </c>
+      <c r="S16">
+        <v>1.029032154493294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.09144866067251201</v>
+        <v>0.04952382063854088</v>
       </c>
       <c r="D17">
-        <v>0.1755864351997332</v>
+        <v>0.1840284165936481</v>
       </c>
       <c r="E17">
-        <v>0.08628469212436585</v>
+        <v>0.08673644387793544</v>
       </c>
       <c r="F17">
-        <v>0.5804961224663003</v>
+        <v>0.5390699865793138</v>
       </c>
       <c r="G17">
-        <v>0.3177739745889099</v>
+        <v>0.2774780018992971</v>
       </c>
       <c r="H17">
-        <v>0.1260898847987448</v>
+        <v>0.1257931084767989</v>
       </c>
       <c r="I17">
-        <v>0.01432707998650873</v>
+        <v>0.01318948755509464</v>
       </c>
       <c r="J17">
-        <v>0.2646335496998944</v>
+        <v>0.2740157640866698</v>
       </c>
       <c r="K17">
-        <v>0.3432382915404304</v>
+        <v>0.2926418752808146</v>
       </c>
       <c r="L17">
-        <v>0.06959275015033484</v>
+        <v>0.1475338020846664</v>
       </c>
       <c r="M17">
-        <v>3.94218136030031</v>
+        <v>0.09155432629316351</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.0675731159602222</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>3.820540283713001</v>
       </c>
       <c r="P17">
-        <v>1.318555308248733</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.177160046393482</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.383212084892961</v>
+      </c>
+      <c r="S17">
+        <v>1.064916683666354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08699042991281658</v>
+        <v>0.04546571932436905</v>
       </c>
       <c r="D18">
-        <v>0.2059862907585028</v>
+        <v>0.2151951218999102</v>
       </c>
       <c r="E18">
-        <v>0.1180908957618918</v>
+        <v>0.1189152509568601</v>
       </c>
       <c r="F18">
-        <v>0.6308286984576483</v>
+        <v>0.5874034772981886</v>
       </c>
       <c r="G18">
-        <v>0.3415677446794092</v>
+        <v>0.2942319345267492</v>
       </c>
       <c r="H18">
-        <v>0.07324214439821475</v>
+        <v>0.07295316798963114</v>
       </c>
       <c r="I18">
-        <v>0.01381575752518849</v>
+        <v>0.01270317829707235</v>
       </c>
       <c r="J18">
-        <v>0.2778521929298563</v>
+        <v>0.2921876988868917</v>
       </c>
       <c r="K18">
-        <v>0.3611385545840946</v>
+        <v>0.3085493765855531</v>
       </c>
       <c r="L18">
-        <v>0.1013346276440075</v>
+        <v>0.1549366333002915</v>
       </c>
       <c r="M18">
-        <v>3.925322418529277</v>
+        <v>0.09584346116324127</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.09893573414507628</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>3.805610594506902</v>
       </c>
       <c r="P18">
-        <v>1.265476538423769</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.255231481981752</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.326791398942547</v>
+      </c>
+      <c r="S18">
+        <v>1.138862933435718</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0819448345754239</v>
+        <v>0.04054219447065321</v>
       </c>
       <c r="D19">
-        <v>0.2529701017708845</v>
+        <v>0.2637478922099632</v>
       </c>
       <c r="E19">
-        <v>0.1709754678105995</v>
+        <v>0.1723277380643147</v>
       </c>
       <c r="F19">
-        <v>0.7036517488197376</v>
+        <v>0.6551009200743039</v>
       </c>
       <c r="G19">
-        <v>0.3757575170461678</v>
+        <v>0.3230379692104037</v>
       </c>
       <c r="H19">
-        <v>0.02852258239154537</v>
+        <v>0.02819195160296317</v>
       </c>
       <c r="I19">
-        <v>0.01418206596556448</v>
+        <v>0.01304543415430182</v>
       </c>
       <c r="J19">
-        <v>0.2954321834717888</v>
+        <v>0.3097472636560283</v>
       </c>
       <c r="K19">
-        <v>0.3866313846060692</v>
+        <v>0.3294190439024476</v>
       </c>
       <c r="L19">
-        <v>0.1625212546922157</v>
+        <v>0.1632110504074262</v>
       </c>
       <c r="M19">
-        <v>3.991122720250871</v>
+        <v>0.1033422537696147</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1594710910999808</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>3.86655578967941</v>
       </c>
       <c r="P19">
-        <v>1.214037774333008</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.364524703608396</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.274965243364221</v>
+      </c>
+      <c r="S19">
+        <v>1.236192819926515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07958916030089824</v>
+        <v>0.03623492762801561</v>
       </c>
       <c r="D20">
-        <v>0.3441499331040632</v>
+        <v>0.3589127712319566</v>
       </c>
       <c r="E20">
-        <v>0.280280290757247</v>
+        <v>0.2826693265906854</v>
       </c>
       <c r="F20">
-        <v>0.8414379815687312</v>
+        <v>0.7782894642931382</v>
       </c>
       <c r="G20">
-        <v>0.4416182419918897</v>
+        <v>0.3885859072020423</v>
       </c>
       <c r="H20">
-        <v>0.004544548779170654</v>
+        <v>0.00401364467155263</v>
       </c>
       <c r="I20">
-        <v>0.01628085961133507</v>
+        <v>0.0147498117423579</v>
       </c>
       <c r="J20">
-        <v>0.3264577745997741</v>
+        <v>0.3252990112930831</v>
       </c>
       <c r="K20">
-        <v>0.4376274602043324</v>
+        <v>0.3677382781021805</v>
       </c>
       <c r="L20">
-        <v>0.3023234816919143</v>
+        <v>0.1745835318714875</v>
       </c>
       <c r="M20">
-        <v>4.297975189351121</v>
+        <v>0.1218545053801172</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2977107514233381</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>4.149828554743067</v>
       </c>
       <c r="P20">
-        <v>1.162386763877251</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.569252346534086</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1.230170046295314</v>
+      </c>
+      <c r="S20">
+        <v>1.405257569552276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.08945659020997709</v>
+        <v>0.04132617028574259</v>
       </c>
       <c r="D21">
-        <v>0.3888841962883021</v>
+        <v>0.4109004960656364</v>
       </c>
       <c r="E21">
-        <v>0.3198089791907321</v>
+        <v>0.3235392993785808</v>
       </c>
       <c r="F21">
-        <v>0.9158478861924948</v>
+        <v>0.8230807598851158</v>
       </c>
       <c r="G21">
-        <v>0.4810566071993776</v>
+        <v>0.4906325728404255</v>
       </c>
       <c r="H21">
-        <v>0.007081890789917056</v>
+        <v>0.0061820003260038</v>
       </c>
       <c r="I21">
-        <v>0.0205887112117713</v>
+        <v>0.01806097845665899</v>
       </c>
       <c r="J21">
-        <v>0.3402942903210686</v>
+        <v>0.2575483399030105</v>
       </c>
       <c r="K21">
-        <v>0.4726337701498835</v>
+        <v>0.3811232090054872</v>
       </c>
       <c r="L21">
-        <v>0.3472788209324875</v>
+        <v>0.1701417001703049</v>
       </c>
       <c r="M21">
-        <v>4.843274280219418</v>
+        <v>0.1392271826963949</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.340603488594823</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>4.627536781969411</v>
       </c>
       <c r="P21">
-        <v>1.208184030533261</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.6821577581658</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1.307111893994076</v>
+      </c>
+      <c r="S21">
+        <v>1.441819239053757</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.09749564579968251</v>
+        <v>0.04591523038335055</v>
       </c>
       <c r="D22">
-        <v>0.4136811954221002</v>
+        <v>0.4407507138154472</v>
       </c>
       <c r="E22">
-        <v>0.3401038706205455</v>
+        <v>0.3447732159679759</v>
       </c>
       <c r="F22">
-        <v>0.9609135149450623</v>
+        <v>0.8475179045310597</v>
       </c>
       <c r="G22">
-        <v>0.5060451890970938</v>
+        <v>0.5659318817763506</v>
       </c>
       <c r="H22">
-        <v>0.008976355128828079</v>
+        <v>0.007800268458755394</v>
       </c>
       <c r="I22">
-        <v>0.02335976768850934</v>
+        <v>0.02004656615657474</v>
       </c>
       <c r="J22">
-        <v>0.3490093879356806</v>
+        <v>0.2180294526282296</v>
       </c>
       <c r="K22">
-        <v>0.4957309929538738</v>
+        <v>0.3892917039996036</v>
       </c>
       <c r="L22">
-        <v>0.3692976231164238</v>
+        <v>0.1670968111998263</v>
       </c>
       <c r="M22">
-        <v>5.195697011164327</v>
+        <v>0.1507237568585111</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.361252790601597</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>4.93247686771258</v>
       </c>
       <c r="P22">
-        <v>1.240452540138946</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.753585435227677</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1.361553318671923</v>
+      </c>
+      <c r="S22">
+        <v>1.459928720539608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.09458464556330171</v>
+        <v>0.04415283528296499</v>
       </c>
       <c r="D23">
-        <v>0.4000546584560709</v>
+        <v>0.4238475279388751</v>
       </c>
       <c r="E23">
-        <v>0.3291857905580429</v>
+        <v>0.333226036033615</v>
       </c>
       <c r="F23">
-        <v>0.9384454133065816</v>
+        <v>0.8381234711271475</v>
       </c>
       <c r="G23">
-        <v>0.4940519316768217</v>
+        <v>0.5182258265482744</v>
       </c>
       <c r="H23">
-        <v>0.007950680229358131</v>
+        <v>0.006933005568424133</v>
       </c>
       <c r="I23">
-        <v>0.02163924174865173</v>
+        <v>0.01870005359020954</v>
       </c>
       <c r="J23">
-        <v>0.3450265943711628</v>
+        <v>0.2455819650465827</v>
       </c>
       <c r="K23">
-        <v>0.4852852917435229</v>
+        <v>0.3877670818415311</v>
       </c>
       <c r="L23">
-        <v>0.3576326170043416</v>
+        <v>0.1696812436209711</v>
       </c>
       <c r="M23">
-        <v>5.011169034646741</v>
+        <v>0.1457419838830312</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3504304932219782</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>4.77796786223297</v>
       </c>
       <c r="P23">
-        <v>1.221632854159736</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.719712564202808</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1.328525809322102</v>
+      </c>
+      <c r="S23">
+        <v>1.459677763562041</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.08114296501690887</v>
+        <v>0.03711029841078783</v>
       </c>
       <c r="D24">
-        <v>0.3492752281181595</v>
+        <v>0.3641709046091961</v>
       </c>
       <c r="E24">
-        <v>0.2880815887394874</v>
+        <v>0.2905225349641398</v>
       </c>
       <c r="F24">
-        <v>0.8521094955474524</v>
+        <v>0.7883894392034136</v>
       </c>
       <c r="G24">
-        <v>0.4474786765429712</v>
+        <v>0.3933630701460373</v>
       </c>
       <c r="H24">
-        <v>0.004552647599630033</v>
+        <v>0.004012925623881225</v>
       </c>
       <c r="I24">
-        <v>0.01592241175822817</v>
+        <v>0.01428253510678079</v>
       </c>
       <c r="J24">
-        <v>0.3294628267264272</v>
+        <v>0.3287007198220522</v>
       </c>
       <c r="K24">
-        <v>0.4432307229685577</v>
+        <v>0.3726029674761477</v>
       </c>
       <c r="L24">
-        <v>0.3133936083641231</v>
+        <v>0.1765085942949618</v>
       </c>
       <c r="M24">
-        <v>4.305727945566673</v>
+        <v>0.1236027422959687</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3087012800068294</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>4.157323238408594</v>
       </c>
       <c r="P24">
-        <v>1.154443663024097</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.587967360050158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1.221838967924995</v>
+      </c>
+      <c r="S24">
+        <v>1.422483776047756</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.06633886659571431</v>
+        <v>0.03137053300405057</v>
       </c>
       <c r="D25">
-        <v>0.2948537607705788</v>
+        <v>0.3062785375736894</v>
       </c>
       <c r="E25">
-        <v>0.243917291580189</v>
+        <v>0.2459474651629776</v>
       </c>
       <c r="F25">
-        <v>0.7617840987226145</v>
+        <v>0.7131872695767356</v>
       </c>
       <c r="G25">
-        <v>0.3994111138108138</v>
+        <v>0.3487107701582772</v>
       </c>
       <c r="H25">
-        <v>0.001848482648856953</v>
+        <v>0.001614635454734392</v>
       </c>
       <c r="I25">
-        <v>0.01064152843669497</v>
+        <v>0.009972626905548232</v>
       </c>
       <c r="J25">
-        <v>0.3139807005545947</v>
+        <v>0.3252857745590063</v>
       </c>
       <c r="K25">
-        <v>0.3991058797953357</v>
+        <v>0.3436024497556005</v>
       </c>
       <c r="L25">
-        <v>0.2657863896101418</v>
+        <v>0.1793122384339156</v>
       </c>
       <c r="M25">
-        <v>3.542883552756791</v>
+        <v>0.09657876275447208</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2624646736556286</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>3.432752647560449</v>
       </c>
       <c r="P25">
-        <v>1.085026545111063</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.453163974951906</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.13437426424845</v>
+      </c>
+      <c r="S25">
+        <v>1.326224947756629</v>
       </c>
     </row>
   </sheetData>
